--- a/analizy_ELA/graduates-institution-dictionary.xlsx
+++ b/analizy_ELA/graduates-institution-dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marekbozykowski/Dropbox/ELA7A_produkty/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPSZ\Desktop\STUDIA\doktorat_git\analizy_ELA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385BE619-2BA9-8C47-B9C3-9074DBE7729B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4A82EF-41BF-4B09-B58B-AE15CBEC0550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9160" yWindow="2340" windowWidth="27320" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="-98" windowWidth="23243" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -4943,14 +4943,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B763"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4958,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4966,7 +4968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4974,7 +4976,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4982,7 +4984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4990,7 +4992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4998,7 +5000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -5006,7 +5008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5014,7 +5016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -5022,7 +5024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -5030,7 +5032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5038,7 +5040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5046,7 +5048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -5054,7 +5056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -5062,7 +5064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -5070,7 +5072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -5078,7 +5080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -5086,7 +5088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5094,7 +5096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -5102,7 +5104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -5110,7 +5112,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -5118,7 +5120,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -5134,7 +5136,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -5142,7 +5144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -5150,7 +5152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -5158,7 +5160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -5166,7 +5168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -5174,7 +5176,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -5182,7 +5184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -5190,7 +5192,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -5198,7 +5200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -5206,7 +5208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -5214,7 +5216,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -5222,7 +5224,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -5230,7 +5232,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -5238,7 +5240,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -5246,7 +5248,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -5254,7 +5256,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -5262,7 +5264,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -5270,7 +5272,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -5278,7 +5280,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -5286,7 +5288,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -5294,7 +5296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -5302,7 +5304,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -5318,7 +5320,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -5326,7 +5328,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -5334,7 +5336,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -5342,7 +5344,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -5350,7 +5352,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -5358,7 +5360,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -5366,7 +5368,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -5374,7 +5376,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -5390,7 +5392,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -5398,7 +5400,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>106</v>
       </c>
@@ -5406,7 +5408,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -5414,7 +5416,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -5422,7 +5424,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -5430,7 +5432,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -5438,7 +5440,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -5446,7 +5448,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -5454,7 +5456,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>120</v>
       </c>
@@ -5462,7 +5464,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>122</v>
       </c>
@@ -5470,7 +5472,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>124</v>
       </c>
@@ -5478,7 +5480,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -5486,7 +5488,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -5494,7 +5496,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>130</v>
       </c>
@@ -5502,7 +5504,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>132</v>
       </c>
@@ -5510,7 +5512,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>134</v>
       </c>
@@ -5518,7 +5520,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>136</v>
       </c>
@@ -5526,7 +5528,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>138</v>
       </c>
@@ -5534,7 +5536,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>140</v>
       </c>
@@ -5542,7 +5544,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -5550,7 +5552,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>144</v>
       </c>
@@ -5558,7 +5560,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>146</v>
       </c>
@@ -5566,7 +5568,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>148</v>
       </c>
@@ -5574,7 +5576,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>150</v>
       </c>
@@ -5582,7 +5584,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -5590,7 +5592,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>154</v>
       </c>
@@ -5598,7 +5600,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>156</v>
       </c>
@@ -5606,7 +5608,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>158</v>
       </c>
@@ -5614,7 +5616,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>160</v>
       </c>
@@ -5622,7 +5624,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>162</v>
       </c>
@@ -5630,7 +5632,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>164</v>
       </c>
@@ -5638,7 +5640,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>166</v>
       </c>
@@ -5646,7 +5648,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>168</v>
       </c>
@@ -5654,7 +5656,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>170</v>
       </c>
@@ -5662,7 +5664,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>172</v>
       </c>
@@ -5670,7 +5672,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>174</v>
       </c>
@@ -5678,7 +5680,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>176</v>
       </c>
@@ -5686,7 +5688,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>178</v>
       </c>
@@ -5694,7 +5696,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>180</v>
       </c>
@@ -5702,7 +5704,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>182</v>
       </c>
@@ -5710,7 +5712,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>184</v>
       </c>
@@ -5718,7 +5720,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>186</v>
       </c>
@@ -5726,7 +5728,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>188</v>
       </c>
@@ -5734,7 +5736,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>190</v>
       </c>
@@ -5742,7 +5744,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>192</v>
       </c>
@@ -5750,7 +5752,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>194</v>
       </c>
@@ -5758,7 +5760,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>196</v>
       </c>
@@ -5766,7 +5768,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>198</v>
       </c>
@@ -5774,7 +5776,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>200</v>
       </c>
@@ -5782,7 +5784,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>202</v>
       </c>
@@ -5790,7 +5792,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>204</v>
       </c>
@@ -5798,7 +5800,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>206</v>
       </c>
@@ -5806,7 +5808,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>208</v>
       </c>
@@ -5814,7 +5816,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>210</v>
       </c>
@@ -5822,7 +5824,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>212</v>
       </c>
@@ -5830,7 +5832,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>214</v>
       </c>
@@ -5838,7 +5840,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>216</v>
       </c>
@@ -5846,7 +5848,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>218</v>
       </c>
@@ -5854,7 +5856,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>220</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>222</v>
       </c>
@@ -5870,7 +5872,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>224</v>
       </c>
@@ -5878,7 +5880,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>226</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>228</v>
       </c>
@@ -5894,7 +5896,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>230</v>
       </c>
@@ -5902,7 +5904,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>232</v>
       </c>
@@ -5910,7 +5912,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>234</v>
       </c>
@@ -5918,7 +5920,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>236</v>
       </c>
@@ -5926,7 +5928,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>238</v>
       </c>
@@ -5934,7 +5936,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>240</v>
       </c>
@@ -5942,7 +5944,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>242</v>
       </c>
@@ -5950,7 +5952,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>244</v>
       </c>
@@ -5958,7 +5960,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>246</v>
       </c>
@@ -5966,7 +5968,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>248</v>
       </c>
@@ -5974,7 +5976,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>250</v>
       </c>
@@ -5982,7 +5984,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>252</v>
       </c>
@@ -5990,7 +5992,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -5998,7 +6000,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>256</v>
       </c>
@@ -6006,7 +6008,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>258</v>
       </c>
@@ -6014,7 +6016,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>260</v>
       </c>
@@ -6022,7 +6024,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>262</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>264</v>
       </c>
@@ -6038,7 +6040,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>266</v>
       </c>
@@ -6046,7 +6048,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>268</v>
       </c>
@@ -6054,7 +6056,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>270</v>
       </c>
@@ -6062,7 +6064,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>272</v>
       </c>
@@ -6070,7 +6072,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>274</v>
       </c>
@@ -6078,7 +6080,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>276</v>
       </c>
@@ -6086,7 +6088,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>278</v>
       </c>
@@ -6094,7 +6096,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>280</v>
       </c>
@@ -6102,7 +6104,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>282</v>
       </c>
@@ -6110,7 +6112,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>284</v>
       </c>
@@ -6118,7 +6120,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>286</v>
       </c>
@@ -6126,7 +6128,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>288</v>
       </c>
@@ -6134,7 +6136,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>290</v>
       </c>
@@ -6142,7 +6144,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>292</v>
       </c>
@@ -6150,7 +6152,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>294</v>
       </c>
@@ -6158,7 +6160,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>296</v>
       </c>
@@ -6166,7 +6168,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>298</v>
       </c>
@@ -6174,7 +6176,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>300</v>
       </c>
@@ -6182,7 +6184,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>302</v>
       </c>
@@ -6190,7 +6192,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>304</v>
       </c>
@@ -6198,7 +6200,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>306</v>
       </c>
@@ -6206,7 +6208,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>308</v>
       </c>
@@ -6214,7 +6216,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>310</v>
       </c>
@@ -6222,7 +6224,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>312</v>
       </c>
@@ -6230,7 +6232,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>314</v>
       </c>
@@ -6238,7 +6240,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>316</v>
       </c>
@@ -6246,7 +6248,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>318</v>
       </c>
@@ -6254,7 +6256,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>320</v>
       </c>
@@ -6262,7 +6264,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>322</v>
       </c>
@@ -6270,7 +6272,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>324</v>
       </c>
@@ -6278,7 +6280,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>326</v>
       </c>
@@ -6286,7 +6288,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>328</v>
       </c>
@@ -6294,7 +6296,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>330</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>332</v>
       </c>
@@ -6310,7 +6312,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>334</v>
       </c>
@@ -6318,7 +6320,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>336</v>
       </c>
@@ -6326,7 +6328,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>338</v>
       </c>
@@ -6334,7 +6336,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>340</v>
       </c>
@@ -6342,7 +6344,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>342</v>
       </c>
@@ -6350,7 +6352,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>344</v>
       </c>
@@ -6358,7 +6360,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>346</v>
       </c>
@@ -6366,7 +6368,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>348</v>
       </c>
@@ -6374,7 +6376,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>350</v>
       </c>
@@ -6382,7 +6384,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>352</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>354</v>
       </c>
@@ -6398,7 +6400,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>356</v>
       </c>
@@ -6406,7 +6408,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>358</v>
       </c>
@@ -6414,7 +6416,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>360</v>
       </c>
@@ -6422,7 +6424,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>362</v>
       </c>
@@ -6430,7 +6432,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>364</v>
       </c>
@@ -6438,7 +6440,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>366</v>
       </c>
@@ -6446,7 +6448,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>368</v>
       </c>
@@ -6454,7 +6456,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>370</v>
       </c>
@@ -6462,7 +6464,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>372</v>
       </c>
@@ -6470,7 +6472,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>374</v>
       </c>
@@ -6478,7 +6480,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>376</v>
       </c>
@@ -6486,7 +6488,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>378</v>
       </c>
@@ -6494,7 +6496,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>380</v>
       </c>
@@ -6502,7 +6504,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>382</v>
       </c>
@@ -6510,7 +6512,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>384</v>
       </c>
@@ -6518,7 +6520,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>386</v>
       </c>
@@ -6526,7 +6528,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>388</v>
       </c>
@@ -6534,7 +6536,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>390</v>
       </c>
@@ -6542,7 +6544,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>392</v>
       </c>
@@ -6550,7 +6552,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>394</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>396</v>
       </c>
@@ -6566,7 +6568,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>398</v>
       </c>
@@ -6574,7 +6576,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>400</v>
       </c>
@@ -6582,7 +6584,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>402</v>
       </c>
@@ -6590,7 +6592,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>404</v>
       </c>
@@ -6598,7 +6600,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>406</v>
       </c>
@@ -6606,7 +6608,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>408</v>
       </c>
@@ -6614,7 +6616,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>410</v>
       </c>
@@ -6622,7 +6624,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>412</v>
       </c>
@@ -6630,7 +6632,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>414</v>
       </c>
@@ -6638,7 +6640,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>416</v>
       </c>
@@ -6646,7 +6648,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>418</v>
       </c>
@@ -6654,7 +6656,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>420</v>
       </c>
@@ -6662,7 +6664,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>422</v>
       </c>
@@ -6670,7 +6672,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>424</v>
       </c>
@@ -6678,7 +6680,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>426</v>
       </c>
@@ -6686,7 +6688,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>428</v>
       </c>
@@ -6694,7 +6696,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>430</v>
       </c>
@@ -6702,7 +6704,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>432</v>
       </c>
@@ -6710,7 +6712,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>434</v>
       </c>
@@ -6718,7 +6720,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>436</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>438</v>
       </c>
@@ -6734,7 +6736,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>440</v>
       </c>
@@ -6742,7 +6744,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>442</v>
       </c>
@@ -6750,7 +6752,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>444</v>
       </c>
@@ -6758,7 +6760,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>446</v>
       </c>
@@ -6766,7 +6768,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>448</v>
       </c>
@@ -6774,7 +6776,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>450</v>
       </c>
@@ -6782,7 +6784,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>452</v>
       </c>
@@ -6790,7 +6792,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>454</v>
       </c>
@@ -6798,7 +6800,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>456</v>
       </c>
@@ -6806,7 +6808,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>458</v>
       </c>
@@ -6814,7 +6816,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>460</v>
       </c>
@@ -6822,7 +6824,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>462</v>
       </c>
@@ -6830,7 +6832,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>464</v>
       </c>
@@ -6838,7 +6840,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>466</v>
       </c>
@@ -6846,7 +6848,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>468</v>
       </c>
@@ -6854,7 +6856,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>470</v>
       </c>
@@ -6862,7 +6864,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>472</v>
       </c>
@@ -6870,7 +6872,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>474</v>
       </c>
@@ -6878,7 +6880,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>476</v>
       </c>
@@ -6886,7 +6888,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>478</v>
       </c>
@@ -6894,7 +6896,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>480</v>
       </c>
@@ -6902,7 +6904,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>482</v>
       </c>
@@ -6910,7 +6912,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>484</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>486</v>
       </c>
@@ -6926,7 +6928,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>488</v>
       </c>
@@ -6934,7 +6936,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>490</v>
       </c>
@@ -6942,7 +6944,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>492</v>
       </c>
@@ -6950,7 +6952,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>494</v>
       </c>
@@ -6958,7 +6960,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>496</v>
       </c>
@@ -6966,7 +6968,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>498</v>
       </c>
@@ -6974,7 +6976,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>500</v>
       </c>
@@ -6982,7 +6984,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>502</v>
       </c>
@@ -6990,7 +6992,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>504</v>
       </c>
@@ -6998,7 +7000,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>506</v>
       </c>
@@ -7006,7 +7008,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>508</v>
       </c>
@@ -7014,7 +7016,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>510</v>
       </c>
@@ -7022,7 +7024,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>512</v>
       </c>
@@ -7030,7 +7032,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>514</v>
       </c>
@@ -7038,7 +7040,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>516</v>
       </c>
@@ -7046,7 +7048,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>518</v>
       </c>
@@ -7054,7 +7056,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>520</v>
       </c>
@@ -7062,7 +7064,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>522</v>
       </c>
@@ -7070,7 +7072,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>524</v>
       </c>
@@ -7078,7 +7080,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>526</v>
       </c>
@@ -7086,7 +7088,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>528</v>
       </c>
@@ -7094,7 +7096,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>530</v>
       </c>
@@ -7102,7 +7104,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>532</v>
       </c>
@@ -7110,7 +7112,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>534</v>
       </c>
@@ -7118,7 +7120,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>536</v>
       </c>
@@ -7126,7 +7128,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>538</v>
       </c>
@@ -7134,7 +7136,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>540</v>
       </c>
@@ -7142,7 +7144,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>542</v>
       </c>
@@ -7150,7 +7152,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>544</v>
       </c>
@@ -7158,7 +7160,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>546</v>
       </c>
@@ -7166,7 +7168,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>548</v>
       </c>
@@ -7174,7 +7176,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>550</v>
       </c>
@@ -7182,7 +7184,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>552</v>
       </c>
@@ -7190,7 +7192,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>554</v>
       </c>
@@ -7198,7 +7200,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>556</v>
       </c>
@@ -7206,7 +7208,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>558</v>
       </c>
@@ -7214,7 +7216,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>560</v>
       </c>
@@ -7222,7 +7224,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>562</v>
       </c>
@@ -7230,7 +7232,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>564</v>
       </c>
@@ -7238,7 +7240,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>566</v>
       </c>
@@ -7246,7 +7248,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>568</v>
       </c>
@@ -7254,7 +7256,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>570</v>
       </c>
@@ -7262,7 +7264,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>572</v>
       </c>
@@ -7270,7 +7272,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>574</v>
       </c>
@@ -7278,7 +7280,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>576</v>
       </c>
@@ -7286,7 +7288,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>578</v>
       </c>
@@ -7294,7 +7296,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>580</v>
       </c>
@@ -7302,7 +7304,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>582</v>
       </c>
@@ -7310,7 +7312,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>584</v>
       </c>
@@ -7318,7 +7320,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>586</v>
       </c>
@@ -7326,7 +7328,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>588</v>
       </c>
@@ -7334,7 +7336,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>590</v>
       </c>
@@ -7342,7 +7344,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>592</v>
       </c>
@@ -7350,7 +7352,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>594</v>
       </c>
@@ -7358,7 +7360,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>596</v>
       </c>
@@ -7366,7 +7368,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>598</v>
       </c>
@@ -7374,7 +7376,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>600</v>
       </c>
@@ -7382,7 +7384,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>602</v>
       </c>
@@ -7390,7 +7392,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>604</v>
       </c>
@@ -7398,7 +7400,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>606</v>
       </c>
@@ -7406,7 +7408,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>608</v>
       </c>
@@ -7414,7 +7416,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>610</v>
       </c>
@@ -7422,7 +7424,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>612</v>
       </c>
@@ -7430,7 +7432,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>614</v>
       </c>
@@ -7438,7 +7440,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>616</v>
       </c>
@@ -7446,7 +7448,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>618</v>
       </c>
@@ -7454,7 +7456,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>620</v>
       </c>
@@ -7462,7 +7464,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>622</v>
       </c>
@@ -7470,7 +7472,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>624</v>
       </c>
@@ -7478,7 +7480,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>626</v>
       </c>
@@ -7486,7 +7488,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>628</v>
       </c>
@@ -7494,7 +7496,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>630</v>
       </c>
@@ -7502,7 +7504,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>632</v>
       </c>
@@ -7510,7 +7512,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>634</v>
       </c>
@@ -7518,7 +7520,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>636</v>
       </c>
@@ -7526,7 +7528,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>638</v>
       </c>
@@ -7534,7 +7536,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>640</v>
       </c>
@@ -7542,7 +7544,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>642</v>
       </c>
@@ -7550,7 +7552,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>644</v>
       </c>
@@ -7558,7 +7560,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>646</v>
       </c>
@@ -7566,7 +7568,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>648</v>
       </c>
@@ -7574,7 +7576,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>650</v>
       </c>
@@ -7582,7 +7584,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>652</v>
       </c>
@@ -7590,7 +7592,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>654</v>
       </c>
@@ -7598,7 +7600,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>656</v>
       </c>
@@ -7606,7 +7608,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>658</v>
       </c>
@@ -7614,7 +7616,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>660</v>
       </c>
@@ -7622,7 +7624,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>662</v>
       </c>
@@ -7630,7 +7632,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>664</v>
       </c>
@@ -7638,7 +7640,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>666</v>
       </c>
@@ -7646,7 +7648,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>668</v>
       </c>
@@ -7654,7 +7656,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>670</v>
       </c>
@@ -7662,7 +7664,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>672</v>
       </c>
@@ -7670,7 +7672,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>674</v>
       </c>
@@ -7678,7 +7680,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>676</v>
       </c>
@@ -7686,7 +7688,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>678</v>
       </c>
@@ -7694,7 +7696,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>680</v>
       </c>
@@ -7702,7 +7704,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>682</v>
       </c>
@@ -7710,7 +7712,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>684</v>
       </c>
@@ -7718,7 +7720,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>686</v>
       </c>
@@ -7726,7 +7728,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>688</v>
       </c>
@@ -7734,7 +7736,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>690</v>
       </c>
@@ -7742,7 +7744,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>692</v>
       </c>
@@ -7750,7 +7752,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>694</v>
       </c>
@@ -7758,7 +7760,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>696</v>
       </c>
@@ -7766,7 +7768,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>698</v>
       </c>
@@ -7774,7 +7776,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>700</v>
       </c>
@@ -7782,7 +7784,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>702</v>
       </c>
@@ -7790,7 +7792,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>704</v>
       </c>
@@ -7798,7 +7800,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>706</v>
       </c>
@@ -7806,7 +7808,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>708</v>
       </c>
@@ -7814,7 +7816,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>710</v>
       </c>
@@ -7822,7 +7824,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>712</v>
       </c>
@@ -7830,7 +7832,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>714</v>
       </c>
@@ -7838,7 +7840,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>716</v>
       </c>
@@ -7846,7 +7848,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>718</v>
       </c>
@@ -7854,7 +7856,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>720</v>
       </c>
@@ -7862,7 +7864,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>722</v>
       </c>
@@ -7870,7 +7872,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>724</v>
       </c>
@@ -7878,7 +7880,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>726</v>
       </c>
@@ -7886,7 +7888,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>728</v>
       </c>
@@ -7894,7 +7896,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>730</v>
       </c>
@@ -7902,7 +7904,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>732</v>
       </c>
@@ -7910,7 +7912,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>734</v>
       </c>
@@ -7918,7 +7920,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>736</v>
       </c>
@@ -7926,7 +7928,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>738</v>
       </c>
@@ -7934,7 +7936,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>740</v>
       </c>
@@ -7942,7 +7944,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>742</v>
       </c>
@@ -7950,7 +7952,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>744</v>
       </c>
@@ -7958,7 +7960,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>746</v>
       </c>
@@ -7966,7 +7968,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>748</v>
       </c>
@@ -7974,7 +7976,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>750</v>
       </c>
@@ -7982,7 +7984,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>752</v>
       </c>
@@ -7990,7 +7992,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>754</v>
       </c>
@@ -7998,7 +8000,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>756</v>
       </c>
@@ -8006,7 +8008,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>758</v>
       </c>
@@ -8014,7 +8016,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>760</v>
       </c>
@@ -8022,7 +8024,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>762</v>
       </c>
@@ -8030,7 +8032,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>764</v>
       </c>
@@ -8038,7 +8040,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>766</v>
       </c>
@@ -8046,7 +8048,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>768</v>
       </c>
@@ -8054,7 +8056,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>770</v>
       </c>
@@ -8062,7 +8064,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>772</v>
       </c>
@@ -8070,7 +8072,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>774</v>
       </c>
@@ -8078,7 +8080,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>776</v>
       </c>
@@ -8086,7 +8088,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>778</v>
       </c>
@@ -8094,7 +8096,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>780</v>
       </c>
@@ -8102,7 +8104,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>782</v>
       </c>
@@ -8110,7 +8112,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>784</v>
       </c>
@@ -8118,7 +8120,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>786</v>
       </c>
@@ -8126,7 +8128,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>788</v>
       </c>
@@ -8134,7 +8136,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>790</v>
       </c>
@@ -8142,7 +8144,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>792</v>
       </c>
@@ -8150,7 +8152,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>794</v>
       </c>
@@ -8158,7 +8160,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>796</v>
       </c>
@@ -8166,7 +8168,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>798</v>
       </c>
@@ -8174,7 +8176,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>800</v>
       </c>
@@ -8182,7 +8184,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>802</v>
       </c>
@@ -8190,7 +8192,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>804</v>
       </c>
@@ -8198,7 +8200,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>806</v>
       </c>
@@ -8206,7 +8208,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>808</v>
       </c>
@@ -8214,7 +8216,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>810</v>
       </c>
@@ -8222,7 +8224,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>812</v>
       </c>
@@ -8230,7 +8232,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>814</v>
       </c>
@@ -8238,7 +8240,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>816</v>
       </c>
@@ -8246,7 +8248,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>818</v>
       </c>
@@ -8254,7 +8256,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>820</v>
       </c>
@@ -8262,7 +8264,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>822</v>
       </c>
@@ -8270,7 +8272,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>824</v>
       </c>
@@ -8278,7 +8280,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>826</v>
       </c>
@@ -8286,7 +8288,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>828</v>
       </c>
@@ -8294,7 +8296,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>830</v>
       </c>
@@ -8302,7 +8304,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>832</v>
       </c>
@@ -8310,7 +8312,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>834</v>
       </c>
@@ -8318,7 +8320,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>836</v>
       </c>
@@ -8326,7 +8328,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>838</v>
       </c>
@@ -8334,7 +8336,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>840</v>
       </c>
@@ -8342,7 +8344,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>842</v>
       </c>
@@ -8350,7 +8352,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>844</v>
       </c>
@@ -8358,7 +8360,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>846</v>
       </c>
@@ -8366,7 +8368,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>848</v>
       </c>
@@ -8374,7 +8376,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>850</v>
       </c>
@@ -8382,7 +8384,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>852</v>
       </c>
@@ -8390,7 +8392,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>854</v>
       </c>
@@ -8398,7 +8400,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>856</v>
       </c>
@@ -8406,7 +8408,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>858</v>
       </c>
@@ -8414,7 +8416,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>860</v>
       </c>
@@ -8422,7 +8424,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>862</v>
       </c>
@@ -8430,7 +8432,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>864</v>
       </c>
@@ -8438,7 +8440,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>866</v>
       </c>
@@ -8446,7 +8448,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>868</v>
       </c>
@@ -8454,7 +8456,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>870</v>
       </c>
@@ -8462,7 +8464,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>872</v>
       </c>
@@ -8470,7 +8472,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>874</v>
       </c>
@@ -8478,7 +8480,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>876</v>
       </c>
@@ -8486,7 +8488,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>878</v>
       </c>
@@ -8494,7 +8496,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>880</v>
       </c>
@@ -8502,7 +8504,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>882</v>
       </c>
@@ -8510,7 +8512,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>884</v>
       </c>
@@ -8518,7 +8520,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>886</v>
       </c>
@@ -8526,7 +8528,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>888</v>
       </c>
@@ -8534,7 +8536,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>890</v>
       </c>
@@ -8542,7 +8544,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>892</v>
       </c>
@@ -8550,7 +8552,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>894</v>
       </c>
@@ -8558,7 +8560,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>896</v>
       </c>
@@ -8566,7 +8568,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>898</v>
       </c>
@@ -8574,7 +8576,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>900</v>
       </c>
@@ -8582,7 +8584,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>902</v>
       </c>
@@ -8590,7 +8592,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>904</v>
       </c>
@@ -8598,7 +8600,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>906</v>
       </c>
@@ -8606,7 +8608,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>908</v>
       </c>
@@ -8614,7 +8616,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>910</v>
       </c>
@@ -8622,7 +8624,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>912</v>
       </c>
@@ -8630,7 +8632,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>914</v>
       </c>
@@ -8638,7 +8640,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>916</v>
       </c>
@@ -8646,7 +8648,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>918</v>
       </c>
@@ -8654,7 +8656,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>920</v>
       </c>
@@ -8662,7 +8664,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>922</v>
       </c>
@@ -8670,7 +8672,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>924</v>
       </c>
@@ -8678,7 +8680,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>926</v>
       </c>
@@ -8686,7 +8688,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>928</v>
       </c>
@@ -8694,7 +8696,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>930</v>
       </c>
@@ -8702,7 +8704,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>932</v>
       </c>
@@ -8710,7 +8712,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>934</v>
       </c>
@@ -8718,7 +8720,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>936</v>
       </c>
@@ -8726,7 +8728,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>938</v>
       </c>
@@ -8734,7 +8736,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>940</v>
       </c>
@@ -8742,7 +8744,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>942</v>
       </c>
@@ -8750,7 +8752,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>944</v>
       </c>
@@ -8758,7 +8760,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>946</v>
       </c>
@@ -8766,7 +8768,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>948</v>
       </c>
@@ -8774,7 +8776,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>950</v>
       </c>
@@ -8782,7 +8784,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>952</v>
       </c>
@@ -8790,7 +8792,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>954</v>
       </c>
@@ -8798,7 +8800,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>956</v>
       </c>
@@ -8806,7 +8808,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>958</v>
       </c>
@@ -8814,7 +8816,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>960</v>
       </c>
@@ -8822,7 +8824,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>962</v>
       </c>
@@ -8830,7 +8832,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>964</v>
       </c>
@@ -8838,7 +8840,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>966</v>
       </c>
@@ -8846,7 +8848,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>968</v>
       </c>
@@ -8854,7 +8856,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>970</v>
       </c>
@@ -8862,7 +8864,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>972</v>
       </c>
@@ -8870,7 +8872,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>974</v>
       </c>
@@ -8878,7 +8880,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>976</v>
       </c>
@@ -8886,7 +8888,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>978</v>
       </c>
@@ -8894,7 +8896,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>980</v>
       </c>
@@ -8902,7 +8904,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>982</v>
       </c>
@@ -8910,7 +8912,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>984</v>
       </c>
@@ -8918,7 +8920,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>986</v>
       </c>
@@ -8926,7 +8928,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>988</v>
       </c>
@@ -8934,7 +8936,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>990</v>
       </c>
@@ -8942,7 +8944,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>992</v>
       </c>
@@ -8950,7 +8952,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>994</v>
       </c>
@@ -8958,7 +8960,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>996</v>
       </c>
@@ -8966,7 +8968,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>998</v>
       </c>
@@ -8974,7 +8976,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>1000</v>
       </c>
@@ -8982,7 +8984,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>1002</v>
       </c>
@@ -8990,7 +8992,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>1004</v>
       </c>
@@ -8998,7 +9000,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>1006</v>
       </c>
@@ -9006,7 +9008,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>1008</v>
       </c>
@@ -9014,7 +9016,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>1010</v>
       </c>
@@ -9022,7 +9024,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>1012</v>
       </c>
@@ -9030,7 +9032,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>1014</v>
       </c>
@@ -9038,7 +9040,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>1016</v>
       </c>
@@ -9046,7 +9048,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>1018</v>
       </c>
@@ -9054,7 +9056,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>1020</v>
       </c>
@@ -9062,7 +9064,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>1022</v>
       </c>
@@ -9070,7 +9072,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>1024</v>
       </c>
@@ -9078,7 +9080,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>1026</v>
       </c>
@@ -9086,7 +9088,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>1028</v>
       </c>
@@ -9094,7 +9096,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>1029</v>
       </c>
@@ -9102,7 +9104,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>1031</v>
       </c>
@@ -9110,7 +9112,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>1032</v>
       </c>
@@ -9118,7 +9120,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>1034</v>
       </c>
@@ -9126,7 +9128,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>1035</v>
       </c>
@@ -9134,7 +9136,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>1037</v>
       </c>
@@ -9142,7 +9144,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>1038</v>
       </c>
@@ -9150,7 +9152,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>1040</v>
       </c>
@@ -9158,7 +9160,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>1041</v>
       </c>
@@ -9166,7 +9168,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>1043</v>
       </c>
@@ -9174,7 +9176,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>1044</v>
       </c>
@@ -9182,7 +9184,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>1046</v>
       </c>
@@ -9190,7 +9192,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>1047</v>
       </c>
@@ -9198,7 +9200,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>1049</v>
       </c>
@@ -9206,7 +9208,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>1050</v>
       </c>
@@ -9214,7 +9216,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>1052</v>
       </c>
@@ -9222,7 +9224,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>1054</v>
       </c>
@@ -9230,7 +9232,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>1056</v>
       </c>
@@ -9238,7 +9240,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>1058</v>
       </c>
@@ -9246,7 +9248,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>1059</v>
       </c>
@@ -9254,7 +9256,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>1060</v>
       </c>
@@ -9262,7 +9264,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>1061</v>
       </c>
@@ -9270,7 +9272,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>1063</v>
       </c>
@@ -9278,7 +9280,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>1064</v>
       </c>
@@ -9286,7 +9288,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>1066</v>
       </c>
@@ -9294,7 +9296,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>1067</v>
       </c>
@@ -9302,7 +9304,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>1069</v>
       </c>
@@ -9310,7 +9312,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>1070</v>
       </c>
@@ -9318,7 +9320,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>1072</v>
       </c>
@@ -9326,7 +9328,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>1073</v>
       </c>
@@ -9334,7 +9336,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>1075</v>
       </c>
@@ -9342,7 +9344,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>1076</v>
       </c>
@@ -9350,7 +9352,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>1078</v>
       </c>
@@ -9358,7 +9360,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>1080</v>
       </c>
@@ -9366,7 +9368,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>1082</v>
       </c>
@@ -9374,7 +9376,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>1084</v>
       </c>
@@ -9382,7 +9384,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>1086</v>
       </c>
@@ -9390,7 +9392,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>1088</v>
       </c>
@@ -9398,7 +9400,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>1090</v>
       </c>
@@ -9406,7 +9408,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>1092</v>
       </c>
@@ -9414,7 +9416,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>1094</v>
       </c>
@@ -9422,7 +9424,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>1096</v>
       </c>
@@ -9430,7 +9432,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>1098</v>
       </c>
@@ -9438,7 +9440,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>1100</v>
       </c>
@@ -9446,7 +9448,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>1102</v>
       </c>
@@ -9454,7 +9456,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>1104</v>
       </c>
@@ -9462,7 +9464,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>1106</v>
       </c>
@@ -9470,7 +9472,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>1108</v>
       </c>
@@ -9478,7 +9480,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>1110</v>
       </c>
@@ -9486,7 +9488,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>1112</v>
       </c>
@@ -9494,7 +9496,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>1114</v>
       </c>
@@ -9502,7 +9504,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>1116</v>
       </c>
@@ -9510,7 +9512,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>1118</v>
       </c>
@@ -9518,7 +9520,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>1120</v>
       </c>
@@ -9526,7 +9528,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>1122</v>
       </c>
@@ -9534,7 +9536,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>1124</v>
       </c>
@@ -9542,7 +9544,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>1126</v>
       </c>
@@ -9550,7 +9552,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>1128</v>
       </c>
@@ -9558,7 +9560,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>1130</v>
       </c>
@@ -9566,7 +9568,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>1132</v>
       </c>
@@ -9574,7 +9576,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>1134</v>
       </c>
@@ -9582,7 +9584,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
         <v>1136</v>
       </c>
@@ -9590,7 +9592,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
         <v>1138</v>
       </c>
@@ -9598,7 +9600,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
         <v>1140</v>
       </c>
@@ -9606,7 +9608,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
         <v>1142</v>
       </c>
@@ -9614,7 +9616,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
         <v>1144</v>
       </c>
@@ -9622,7 +9624,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
         <v>1146</v>
       </c>
@@ -9630,7 +9632,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
         <v>1148</v>
       </c>
@@ -9638,7 +9640,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
         <v>1150</v>
       </c>
@@ -9646,7 +9648,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
         <v>1152</v>
       </c>
@@ -9654,7 +9656,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
         <v>1154</v>
       </c>
@@ -9662,7 +9664,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>1156</v>
       </c>
@@ -9670,7 +9672,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>1158</v>
       </c>
@@ -9678,7 +9680,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
         <v>1160</v>
       </c>
@@ -9686,7 +9688,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
         <v>1162</v>
       </c>
@@ -9694,7 +9696,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
         <v>1164</v>
       </c>
@@ -9702,7 +9704,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
         <v>1166</v>
       </c>
@@ -9710,7 +9712,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
         <v>1168</v>
       </c>
@@ -9718,7 +9720,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
         <v>1170</v>
       </c>
@@ -9726,7 +9728,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
         <v>1172</v>
       </c>
@@ -9734,7 +9736,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
         <v>1174</v>
       </c>
@@ -9742,7 +9744,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
         <v>1176</v>
       </c>
@@ -9750,7 +9752,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
         <v>1178</v>
       </c>
@@ -9758,7 +9760,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>1180</v>
       </c>
@@ -9766,7 +9768,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>1182</v>
       </c>
@@ -9774,7 +9776,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
         <v>1184</v>
       </c>
@@ -9782,7 +9784,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
         <v>1186</v>
       </c>
@@ -9790,7 +9792,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
         <v>1188</v>
       </c>
@@ -9798,7 +9800,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
         <v>1190</v>
       </c>
@@ -9806,7 +9808,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
         <v>1192</v>
       </c>
@@ -9814,7 +9816,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
         <v>1194</v>
       </c>
@@ -9822,7 +9824,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
         <v>1196</v>
       </c>
@@ -9830,7 +9832,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
         <v>1198</v>
       </c>
@@ -9838,7 +9840,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
         <v>1200</v>
       </c>
@@ -9846,7 +9848,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
         <v>1202</v>
       </c>
@@ -9854,7 +9856,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
         <v>1204</v>
       </c>
@@ -9862,7 +9864,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
         <v>1206</v>
       </c>
@@ -9870,7 +9872,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
         <v>1208</v>
       </c>
@@ -9878,7 +9880,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
         <v>1210</v>
       </c>
@@ -9886,7 +9888,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
         <v>1212</v>
       </c>
@@ -9894,7 +9896,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
         <v>1214</v>
       </c>
@@ -9902,7 +9904,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
         <v>1216</v>
       </c>
@@ -9910,7 +9912,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
         <v>1218</v>
       </c>
@@ -9918,7 +9920,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
         <v>1220</v>
       </c>
@@ -9926,7 +9928,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
         <v>1222</v>
       </c>
@@ -9934,7 +9936,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
         <v>1224</v>
       </c>
@@ -9942,7 +9944,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
         <v>1226</v>
       </c>
@@ -9950,7 +9952,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
         <v>1228</v>
       </c>
@@ -9958,7 +9960,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
         <v>1230</v>
       </c>
@@ -9966,7 +9968,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
         <v>1232</v>
       </c>
@@ -9974,7 +9976,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
         <v>1234</v>
       </c>
@@ -9982,7 +9984,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
         <v>1236</v>
       </c>
@@ -9990,7 +9992,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
         <v>1238</v>
       </c>
@@ -9998,7 +10000,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
         <v>1240</v>
       </c>
@@ -10006,7 +10008,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
         <v>1242</v>
       </c>
@@ -10014,7 +10016,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
         <v>1244</v>
       </c>
@@ -10022,7 +10024,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
         <v>1246</v>
       </c>
@@ -10030,7 +10032,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
         <v>1248</v>
       </c>
@@ -10038,7 +10040,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
         <v>1250</v>
       </c>
@@ -10046,7 +10048,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
         <v>1252</v>
       </c>
@@ -10054,7 +10056,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
         <v>1254</v>
       </c>
@@ -10062,7 +10064,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
         <v>1256</v>
       </c>
@@ -10070,7 +10072,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
         <v>1258</v>
       </c>
@@ -10078,7 +10080,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
         <v>1260</v>
       </c>
@@ -10086,7 +10088,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
         <v>1262</v>
       </c>
@@ -10094,7 +10096,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
         <v>1264</v>
       </c>
@@ -10102,7 +10104,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
         <v>1266</v>
       </c>
@@ -10110,7 +10112,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
         <v>1268</v>
       </c>
@@ -10118,7 +10120,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
         <v>1270</v>
       </c>
@@ -10126,7 +10128,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
         <v>1272</v>
       </c>
@@ -10134,7 +10136,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
         <v>1274</v>
       </c>
@@ -10142,7 +10144,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
         <v>1276</v>
       </c>
@@ -10150,7 +10152,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
         <v>1278</v>
       </c>
@@ -10158,7 +10160,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
         <v>1280</v>
       </c>
@@ -10166,7 +10168,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
         <v>1282</v>
       </c>
@@ -10174,7 +10176,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
         <v>1284</v>
       </c>
@@ -10182,7 +10184,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
         <v>1286</v>
       </c>
@@ -10190,7 +10192,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
         <v>1288</v>
       </c>
@@ -10198,7 +10200,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
         <v>1290</v>
       </c>
@@ -10206,7 +10208,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
         <v>1292</v>
       </c>
@@ -10214,7 +10216,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
         <v>1294</v>
       </c>
@@ -10222,7 +10224,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
         <v>1296</v>
       </c>
@@ -10230,7 +10232,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
         <v>1298</v>
       </c>
@@ -10238,7 +10240,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
         <v>1300</v>
       </c>
@@ -10246,7 +10248,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
         <v>1302</v>
       </c>
@@ -10254,7 +10256,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
         <v>1304</v>
       </c>
@@ -10262,7 +10264,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
         <v>1306</v>
       </c>
@@ -10270,7 +10272,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
         <v>1308</v>
       </c>
@@ -10278,7 +10280,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
         <v>1310</v>
       </c>
@@ -10286,7 +10288,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
         <v>1312</v>
       </c>
@@ -10294,7 +10296,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
         <v>1314</v>
       </c>
@@ -10302,7 +10304,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
         <v>1316</v>
       </c>
@@ -10310,7 +10312,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
         <v>1318</v>
       </c>
@@ -10318,7 +10320,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
         <v>1320</v>
       </c>
@@ -10326,7 +10328,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
         <v>1321</v>
       </c>
@@ -10334,7 +10336,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
         <v>1323</v>
       </c>
@@ -10342,7 +10344,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
         <v>1325</v>
       </c>
@@ -10350,7 +10352,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
         <v>1327</v>
       </c>
@@ -10358,7 +10360,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
         <v>1328</v>
       </c>
@@ -10366,7 +10368,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
         <v>1329</v>
       </c>
@@ -10374,7 +10376,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
         <v>1330</v>
       </c>
@@ -10382,7 +10384,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
         <v>1331</v>
       </c>
@@ -10390,7 +10392,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
         <v>1332</v>
       </c>
@@ -10398,7 +10400,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
         <v>1333</v>
       </c>
@@ -10406,7 +10408,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
         <v>1334</v>
       </c>
@@ -10414,7 +10416,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A684" t="s">
         <v>1335</v>
       </c>
@@ -10422,7 +10424,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
         <v>1336</v>
       </c>
@@ -10430,7 +10432,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
         <v>1337</v>
       </c>
@@ -10438,7 +10440,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
         <v>1338</v>
       </c>
@@ -10446,7 +10448,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
         <v>1339</v>
       </c>
@@ -10454,7 +10456,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
         <v>1340</v>
       </c>
@@ -10462,7 +10464,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
         <v>1341</v>
       </c>
@@ -10470,7 +10472,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A691" t="s">
         <v>1342</v>
       </c>
@@ -10478,7 +10480,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A692" t="s">
         <v>1343</v>
       </c>
@@ -10486,7 +10488,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
         <v>1344</v>
       </c>
@@ -10494,7 +10496,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
         <v>1345</v>
       </c>
@@ -10502,7 +10504,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
         <v>1346</v>
       </c>
@@ -10510,7 +10512,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
         <v>1347</v>
       </c>
@@ -10518,7 +10520,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
         <v>1348</v>
       </c>
@@ -10526,7 +10528,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
         <v>1349</v>
       </c>
@@ -10534,7 +10536,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
         <v>1350</v>
       </c>
@@ -10542,7 +10544,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
         <v>1351</v>
       </c>
@@ -10550,7 +10552,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
         <v>1352</v>
       </c>
@@ -10558,7 +10560,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
         <v>1353</v>
       </c>
@@ -10566,7 +10568,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A703" t="s">
         <v>1354</v>
       </c>
@@ -10574,7 +10576,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
         <v>1355</v>
       </c>
@@ -10582,7 +10584,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
         <v>1356</v>
       </c>
@@ -10590,7 +10592,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
         <v>1357</v>
       </c>
@@ -10598,7 +10600,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A707" t="s">
         <v>1358</v>
       </c>
@@ -10606,7 +10608,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
         <v>1359</v>
       </c>
@@ -10614,7 +10616,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
         <v>1360</v>
       </c>
@@ -10622,7 +10624,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
         <v>1361</v>
       </c>
@@ -10630,7 +10632,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
         <v>1362</v>
       </c>
@@ -10638,7 +10640,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
         <v>1363</v>
       </c>
@@ -10646,7 +10648,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A713" t="s">
         <v>1364</v>
       </c>
@@ -10654,7 +10656,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
         <v>1365</v>
       </c>
@@ -10662,7 +10664,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
         <v>1366</v>
       </c>
@@ -10670,7 +10672,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
         <v>1367</v>
       </c>
@@ -10678,7 +10680,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
         <v>1368</v>
       </c>
@@ -10686,7 +10688,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
         <v>1369</v>
       </c>
@@ -10694,7 +10696,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
         <v>1370</v>
       </c>
@@ -10702,7 +10704,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
         <v>1371</v>
       </c>
@@ -10710,7 +10712,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
         <v>1372</v>
       </c>
@@ -10718,7 +10720,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
         <v>1373</v>
       </c>
@@ -10726,7 +10728,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
         <v>1374</v>
       </c>
@@ -10734,7 +10736,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
         <v>1375</v>
       </c>
@@ -10742,7 +10744,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
         <v>1376</v>
       </c>
@@ -10750,7 +10752,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
         <v>1377</v>
       </c>
@@ -10758,7 +10760,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A727" t="s">
         <v>1378</v>
       </c>
@@ -10766,7 +10768,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
         <v>1379</v>
       </c>
@@ -10774,7 +10776,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A729" t="s">
         <v>1380</v>
       </c>
@@ -10782,7 +10784,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
         <v>1381</v>
       </c>
@@ -10790,7 +10792,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
         <v>1382</v>
       </c>
@@ -10798,7 +10800,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
         <v>1383</v>
       </c>
@@ -10806,7 +10808,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A733" t="s">
         <v>1384</v>
       </c>
@@ -10814,7 +10816,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
         <v>1385</v>
       </c>
@@ -10822,7 +10824,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A735" t="s">
         <v>1386</v>
       </c>
@@ -10830,7 +10832,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A736" t="s">
         <v>1387</v>
       </c>
@@ -10838,7 +10840,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A737" t="s">
         <v>1388</v>
       </c>
@@ -10846,7 +10848,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A738" t="s">
         <v>1389</v>
       </c>
@@ -10854,7 +10856,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A739" t="s">
         <v>1390</v>
       </c>
@@ -10862,7 +10864,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A740" t="s">
         <v>1391</v>
       </c>
@@ -10870,7 +10872,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A741" t="s">
         <v>1392</v>
       </c>
@@ -10878,7 +10880,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A742" t="s">
         <v>1393</v>
       </c>
@@ -10886,7 +10888,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A743" t="s">
         <v>1394</v>
       </c>
@@ -10894,7 +10896,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A744" t="s">
         <v>1395</v>
       </c>
@@ -10902,7 +10904,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A745" t="s">
         <v>1396</v>
       </c>
@@ -10910,7 +10912,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A746" t="s">
         <v>1397</v>
       </c>
@@ -10918,7 +10920,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A747" t="s">
         <v>1398</v>
       </c>
@@ -10926,7 +10928,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A748" t="s">
         <v>1399</v>
       </c>
@@ -10934,7 +10936,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A749" t="s">
         <v>1400</v>
       </c>
@@ -10942,7 +10944,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A750" t="s">
         <v>1401</v>
       </c>
@@ -10950,7 +10952,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A751" t="s">
         <v>1402</v>
       </c>
@@ -10958,7 +10960,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A752" t="s">
         <v>1403</v>
       </c>
@@ -10966,7 +10968,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A753" t="s">
         <v>1404</v>
       </c>
@@ -10974,7 +10976,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A754" t="s">
         <v>1405</v>
       </c>
@@ -10982,7 +10984,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A755" t="s">
         <v>1406</v>
       </c>
@@ -10990,7 +10992,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A756" t="s">
         <v>1407</v>
       </c>
@@ -10998,7 +11000,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A757" t="s">
         <v>1408</v>
       </c>
@@ -11006,7 +11008,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A758" t="s">
         <v>1409</v>
       </c>
@@ -11014,7 +11016,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A759" t="s">
         <v>1410</v>
       </c>
@@ -11022,7 +11024,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A760" t="s">
         <v>1411</v>
       </c>
@@ -11030,7 +11032,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A761" t="s">
         <v>1412</v>
       </c>
@@ -11038,7 +11040,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A762" t="s">
         <v>1413</v>
       </c>
@@ -11046,7 +11048,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A763" t="s">
         <v>1414</v>
       </c>

--- a/analizy_ELA/graduates-institution-dictionary.xlsx
+++ b/analizy_ELA/graduates-institution-dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPSZ\Desktop\STUDIA\doktorat_git\analizy_ELA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4A82EF-41BF-4B09-B58B-AE15CBEC0550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055C1E59-6231-41AC-8B7A-D1DC27408F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="855" yWindow="-98" windowWidth="23243" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,21 +16,11 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1528">
   <si>
     <t>nazwazmiennej</t>
   </si>
@@ -4608,6 +4598,12 @@
   </si>
   <si>
     <t>Względny Wskaźnik Zarobków w trakcie studiów absolwentów mających doświadczenie pracy w trakcie studiów</t>
+  </si>
+  <si>
+    <t>Względne zarobki R1</t>
+  </si>
+  <si>
+    <t>Względne zarobki R2</t>
   </si>
 </sst>
 </file>
@@ -4941,6118 +4937,6124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B763"/>
+  <dimension ref="A1:C763"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="A443" sqref="A443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.46484375" customWidth="1"/>
+    <col min="2" max="2" width="39.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
         <v>51</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
         <v>53</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
         <v>57</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
         <v>59</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
         <v>61</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
         <v>65</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
         <v>70</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
         <v>71</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
         <v>72</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
         <v>74</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
         <v>76</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
         <v>78</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
         <v>80</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
         <v>82</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
         <v>84</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
         <v>86</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
         <v>88</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
         <v>90</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
         <v>92</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
         <v>94</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
         <v>96</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
         <v>98</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
         <v>100</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
         <v>102</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
         <v>104</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
         <v>106</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
         <v>108</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
         <v>110</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
         <v>112</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
         <v>114</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
         <v>116</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
         <v>118</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
         <v>120</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
         <v>122</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
         <v>124</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
         <v>126</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
         <v>128</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
         <v>130</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
         <v>132</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
         <v>134</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
         <v>136</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
         <v>138</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
         <v>140</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
         <v>142</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
         <v>144</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
         <v>146</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
         <v>148</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
         <v>150</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B80" t="s">
         <v>152</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B81" t="s">
         <v>154</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B82" t="s">
         <v>156</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
         <v>158</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B84" t="s">
         <v>160</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
         <v>162</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
         <v>164</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
         <v>166</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B88" t="s">
         <v>168</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B89" t="s">
         <v>170</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90" t="s">
         <v>172</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B91" t="s">
         <v>174</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B92" t="s">
         <v>176</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B93" t="s">
         <v>178</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B94" t="s">
         <v>180</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B95" t="s">
         <v>182</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B96" t="s">
         <v>184</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B97" t="s">
         <v>186</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B98" t="s">
         <v>188</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B99" t="s">
         <v>190</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B100" t="s">
         <v>192</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B101" t="s">
         <v>194</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B102" t="s">
         <v>196</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B103" t="s">
         <v>198</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B104" t="s">
         <v>200</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B105" t="s">
         <v>202</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B106" t="s">
         <v>204</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B107" t="s">
         <v>206</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B108" t="s">
         <v>208</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B109" t="s">
         <v>210</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B110" t="s">
         <v>212</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B111" t="s">
         <v>214</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B112" t="s">
         <v>216</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B113" t="s">
         <v>218</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B114" t="s">
         <v>220</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B115" t="s">
         <v>222</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B116" t="s">
         <v>224</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B117" t="s">
         <v>226</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B118" t="s">
         <v>228</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B119" t="s">
         <v>230</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B120" t="s">
         <v>232</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B121" t="s">
         <v>234</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B122" t="s">
         <v>236</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B123" t="s">
         <v>238</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B124" t="s">
         <v>240</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B125" t="s">
         <v>242</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A126" t="s">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B126" t="s">
         <v>244</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B127" t="s">
         <v>246</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B128" t="s">
         <v>248</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B129" t="s">
         <v>250</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A130" t="s">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B130" t="s">
         <v>252</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A131" t="s">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B131" t="s">
         <v>254</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A132" t="s">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B132" t="s">
         <v>256</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A133" t="s">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B133" t="s">
         <v>258</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B134" t="s">
         <v>260</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B135" t="s">
         <v>262</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A136" t="s">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B136" t="s">
         <v>264</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A137" t="s">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B137" t="s">
         <v>266</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A138" t="s">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B138" t="s">
         <v>268</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A139" t="s">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B139" t="s">
         <v>270</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A140" t="s">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B140" t="s">
         <v>272</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A141" t="s">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B141" t="s">
         <v>274</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A142" t="s">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B142" t="s">
         <v>276</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A143" t="s">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B143" t="s">
         <v>278</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A144" t="s">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B144" t="s">
         <v>280</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A145" t="s">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B145" t="s">
         <v>282</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A146" t="s">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B146" t="s">
         <v>284</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A147" t="s">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B147" t="s">
         <v>286</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A148" t="s">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B148" t="s">
         <v>288</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A149" t="s">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B149" t="s">
         <v>290</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A150" t="s">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B150" t="s">
         <v>292</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A151" t="s">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B151" t="s">
         <v>294</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A152" t="s">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B152" t="s">
         <v>296</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A153" t="s">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B153" t="s">
         <v>298</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A154" t="s">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B154" t="s">
         <v>300</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A155" t="s">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B155" t="s">
         <v>302</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A156" t="s">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B156" t="s">
         <v>304</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A157" t="s">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B157" t="s">
         <v>306</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A158" t="s">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B158" t="s">
         <v>308</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B159" t="s">
         <v>310</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A160" t="s">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B160" t="s">
         <v>312</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B161" t="s">
         <v>314</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A162" t="s">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B162" t="s">
         <v>316</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B163" t="s">
         <v>318</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A164" t="s">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B164" t="s">
         <v>320</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A165" t="s">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B165" t="s">
         <v>322</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A166" t="s">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B166" t="s">
         <v>324</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A167" t="s">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B167" t="s">
         <v>326</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A168" t="s">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B168" t="s">
         <v>328</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A169" t="s">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B169" t="s">
         <v>330</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A170" t="s">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B170" t="s">
         <v>332</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A171" t="s">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B171" t="s">
         <v>334</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A172" t="s">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B172" t="s">
         <v>336</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A173" t="s">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B173" t="s">
         <v>338</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A174" t="s">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B174" t="s">
         <v>340</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A175" t="s">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B175" t="s">
         <v>342</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A176" t="s">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B176" t="s">
         <v>344</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A177" t="s">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B177" t="s">
         <v>346</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A178" t="s">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B178" t="s">
         <v>348</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A179" t="s">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B179" t="s">
         <v>350</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A180" t="s">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B180" t="s">
         <v>352</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A181" t="s">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B181" t="s">
         <v>354</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A182" t="s">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B182" t="s">
         <v>356</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A183" t="s">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B183" t="s">
         <v>358</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A184" t="s">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B184" t="s">
         <v>360</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A185" t="s">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B185" t="s">
         <v>362</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A186" t="s">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B186" t="s">
         <v>364</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A187" t="s">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B187" t="s">
         <v>366</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A188" t="s">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B188" t="s">
         <v>368</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A189" t="s">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B189" t="s">
         <v>370</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A190" t="s">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B190" t="s">
         <v>372</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A191" t="s">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B191" t="s">
         <v>374</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A192" t="s">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B192" t="s">
         <v>376</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A193" t="s">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B193" t="s">
         <v>378</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A194" t="s">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B194" t="s">
         <v>380</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A195" t="s">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B195" t="s">
         <v>382</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A196" t="s">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B196" t="s">
         <v>384</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A197" t="s">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B197" t="s">
         <v>386</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A198" t="s">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B198" t="s">
         <v>388</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A199" t="s">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B199" t="s">
         <v>390</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A200" t="s">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B200" t="s">
         <v>392</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A201" t="s">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B201" t="s">
         <v>394</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A202" t="s">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B202" t="s">
         <v>396</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A203" t="s">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B203" t="s">
         <v>398</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A204" t="s">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B204" t="s">
         <v>400</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A205" t="s">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B205" t="s">
         <v>402</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A206" t="s">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B206" t="s">
         <v>404</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A207" t="s">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B207" t="s">
         <v>406</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A208" t="s">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B208" t="s">
         <v>408</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A209" t="s">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B209" t="s">
         <v>410</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A210" t="s">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B210" t="s">
         <v>412</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A211" t="s">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B211" t="s">
         <v>414</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A212" t="s">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B212" t="s">
         <v>416</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A213" t="s">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B213" t="s">
         <v>418</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A214" t="s">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B214" t="s">
         <v>420</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A215" t="s">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B215" t="s">
         <v>422</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A216" t="s">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B216" t="s">
         <v>424</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A217" t="s">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B217" t="s">
         <v>426</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A218" t="s">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B218" t="s">
         <v>428</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A219" t="s">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B219" t="s">
         <v>430</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A220" t="s">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B220" t="s">
         <v>432</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A221" t="s">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B221" t="s">
         <v>434</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A222" t="s">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B222" t="s">
         <v>436</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A223" t="s">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B223" t="s">
         <v>438</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A224" t="s">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B224" t="s">
         <v>440</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A225" t="s">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B225" t="s">
         <v>442</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A226" t="s">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B226" t="s">
         <v>444</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A227" t="s">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B227" t="s">
         <v>446</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A228" t="s">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B228" t="s">
         <v>448</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A229" t="s">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B229" t="s">
         <v>450</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A230" t="s">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B230" t="s">
         <v>452</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A231" t="s">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B231" t="s">
         <v>454</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A232" t="s">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B232" t="s">
         <v>456</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A233" t="s">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B233" t="s">
         <v>458</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A234" t="s">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B234" t="s">
         <v>460</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A235" t="s">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B235" t="s">
         <v>462</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A236" t="s">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B236" t="s">
         <v>464</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A237" t="s">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B237" t="s">
         <v>466</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A238" t="s">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B238" t="s">
         <v>468</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A239" t="s">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B239" t="s">
         <v>470</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A240" t="s">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B240" t="s">
         <v>472</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A241" t="s">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B241" t="s">
         <v>474</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A242" t="s">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B242" t="s">
         <v>476</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A243" t="s">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B243" t="s">
         <v>478</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A244" t="s">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B244" t="s">
         <v>480</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A245" t="s">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B245" t="s">
         <v>482</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A246" t="s">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B246" t="s">
         <v>484</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A247" t="s">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B247" t="s">
         <v>486</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A248" t="s">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B248" t="s">
         <v>488</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A249" t="s">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B249" t="s">
         <v>490</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A250" t="s">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B250" t="s">
         <v>492</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A251" t="s">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B251" t="s">
         <v>494</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C251" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A252" t="s">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B252" t="s">
         <v>496</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A253" t="s">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B253" t="s">
         <v>498</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C253" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A254" t="s">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B254" t="s">
         <v>500</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A255" t="s">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B255" t="s">
         <v>502</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A256" t="s">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B256" t="s">
         <v>504</v>
       </c>
-      <c r="B256" t="s">
+      <c r="C256" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A257" t="s">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B257" t="s">
         <v>506</v>
       </c>
-      <c r="B257" t="s">
+      <c r="C257" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A258" t="s">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B258" t="s">
         <v>508</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A259" t="s">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B259" t="s">
         <v>510</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A260" t="s">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B260" t="s">
         <v>512</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A261" t="s">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B261" t="s">
         <v>514</v>
       </c>
-      <c r="B261" t="s">
+      <c r="C261" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A262" t="s">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B262" t="s">
         <v>516</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A263" t="s">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B263" t="s">
         <v>518</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A264" t="s">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B264" t="s">
         <v>520</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A265" t="s">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B265" t="s">
         <v>522</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A266" t="s">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B266" t="s">
         <v>524</v>
       </c>
-      <c r="B266" t="s">
+      <c r="C266" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A267" t="s">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B267" t="s">
         <v>526</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A268" t="s">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B268" t="s">
         <v>528</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A269" t="s">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B269" t="s">
         <v>530</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C269" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A270" t="s">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B270" t="s">
         <v>532</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A271" t="s">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B271" t="s">
         <v>534</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A272" t="s">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B272" t="s">
         <v>536</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A273" t="s">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B273" t="s">
         <v>538</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A274" t="s">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B274" t="s">
         <v>540</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A275" t="s">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B275" t="s">
         <v>542</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A276" t="s">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B276" t="s">
         <v>544</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C276" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A277" t="s">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B277" t="s">
         <v>546</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C277" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A278" t="s">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B278" t="s">
         <v>548</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A279" t="s">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B279" t="s">
         <v>550</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C279" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A280" t="s">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B280" t="s">
         <v>552</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C280" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A281" t="s">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B281" t="s">
         <v>554</v>
       </c>
-      <c r="B281" t="s">
+      <c r="C281" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A282" t="s">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B282" t="s">
         <v>556</v>
       </c>
-      <c r="B282" t="s">
+      <c r="C282" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A283" t="s">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B283" t="s">
         <v>558</v>
       </c>
-      <c r="B283" t="s">
+      <c r="C283" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A284" t="s">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B284" t="s">
         <v>560</v>
       </c>
-      <c r="B284" t="s">
+      <c r="C284" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A285" t="s">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B285" t="s">
         <v>562</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A286" t="s">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B286" t="s">
         <v>564</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A287" t="s">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B287" t="s">
         <v>566</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A288" t="s">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B288" t="s">
         <v>568</v>
       </c>
-      <c r="B288" t="s">
+      <c r="C288" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A289" t="s">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B289" t="s">
         <v>570</v>
       </c>
-      <c r="B289" t="s">
+      <c r="C289" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A290" t="s">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B290" t="s">
         <v>572</v>
       </c>
-      <c r="B290" t="s">
+      <c r="C290" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A291" t="s">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B291" t="s">
         <v>574</v>
       </c>
-      <c r="B291" t="s">
+      <c r="C291" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A292" t="s">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B292" t="s">
         <v>576</v>
       </c>
-      <c r="B292" t="s">
+      <c r="C292" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A293" t="s">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B293" t="s">
         <v>578</v>
       </c>
-      <c r="B293" t="s">
+      <c r="C293" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A294" t="s">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B294" t="s">
         <v>580</v>
       </c>
-      <c r="B294" t="s">
+      <c r="C294" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A295" t="s">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B295" t="s">
         <v>582</v>
       </c>
-      <c r="B295" t="s">
+      <c r="C295" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A296" t="s">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B296" t="s">
         <v>584</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A297" t="s">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B297" t="s">
         <v>586</v>
       </c>
-      <c r="B297" t="s">
+      <c r="C297" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A298" t="s">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B298" t="s">
         <v>588</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A299" t="s">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B299" t="s">
         <v>590</v>
       </c>
-      <c r="B299" t="s">
+      <c r="C299" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A300" t="s">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B300" t="s">
         <v>592</v>
       </c>
-      <c r="B300" t="s">
+      <c r="C300" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A301" t="s">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B301" t="s">
         <v>594</v>
       </c>
-      <c r="B301" t="s">
+      <c r="C301" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A302" t="s">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B302" t="s">
         <v>596</v>
       </c>
-      <c r="B302" t="s">
+      <c r="C302" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A303" t="s">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B303" t="s">
         <v>598</v>
       </c>
-      <c r="B303" t="s">
+      <c r="C303" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A304" t="s">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B304" t="s">
         <v>600</v>
       </c>
-      <c r="B304" t="s">
+      <c r="C304" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A305" t="s">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B305" t="s">
         <v>602</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A306" t="s">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B306" t="s">
         <v>604</v>
       </c>
-      <c r="B306" t="s">
+      <c r="C306" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A307" t="s">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B307" t="s">
         <v>606</v>
       </c>
-      <c r="B307" t="s">
+      <c r="C307" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A308" t="s">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B308" t="s">
         <v>608</v>
       </c>
-      <c r="B308" t="s">
+      <c r="C308" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A309" t="s">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B309" t="s">
         <v>610</v>
       </c>
-      <c r="B309" t="s">
+      <c r="C309" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A310" t="s">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B310" t="s">
         <v>612</v>
       </c>
-      <c r="B310" t="s">
+      <c r="C310" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A311" t="s">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B311" t="s">
         <v>614</v>
       </c>
-      <c r="B311" t="s">
+      <c r="C311" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A312" t="s">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B312" t="s">
         <v>616</v>
       </c>
-      <c r="B312" t="s">
+      <c r="C312" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A313" t="s">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B313" t="s">
         <v>618</v>
       </c>
-      <c r="B313" t="s">
+      <c r="C313" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A314" t="s">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B314" t="s">
         <v>620</v>
       </c>
-      <c r="B314" t="s">
+      <c r="C314" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A315" t="s">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B315" t="s">
         <v>622</v>
       </c>
-      <c r="B315" t="s">
+      <c r="C315" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A316" t="s">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B316" t="s">
         <v>624</v>
       </c>
-      <c r="B316" t="s">
+      <c r="C316" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A317" t="s">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B317" t="s">
         <v>626</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A318" t="s">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B318" t="s">
         <v>628</v>
       </c>
-      <c r="B318" t="s">
+      <c r="C318" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A319" t="s">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B319" t="s">
         <v>630</v>
       </c>
-      <c r="B319" t="s">
+      <c r="C319" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A320" t="s">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B320" t="s">
         <v>632</v>
       </c>
-      <c r="B320" t="s">
+      <c r="C320" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A321" t="s">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B321" t="s">
         <v>634</v>
       </c>
-      <c r="B321" t="s">
+      <c r="C321" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A322" t="s">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B322" t="s">
         <v>636</v>
       </c>
-      <c r="B322" t="s">
+      <c r="C322" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A323" t="s">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B323" t="s">
         <v>638</v>
       </c>
-      <c r="B323" t="s">
+      <c r="C323" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A324" t="s">
+    <row r="324" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B324" t="s">
         <v>640</v>
       </c>
-      <c r="B324" t="s">
+      <c r="C324" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A325" t="s">
+    <row r="325" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B325" t="s">
         <v>642</v>
       </c>
-      <c r="B325" t="s">
+      <c r="C325" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A326" t="s">
+    <row r="326" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B326" t="s">
         <v>644</v>
       </c>
-      <c r="B326" t="s">
+      <c r="C326" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A327" t="s">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B327" t="s">
         <v>646</v>
       </c>
-      <c r="B327" t="s">
+      <c r="C327" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A328" t="s">
+    <row r="328" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B328" t="s">
         <v>648</v>
       </c>
-      <c r="B328" t="s">
+      <c r="C328" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A329" t="s">
+    <row r="329" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B329" t="s">
         <v>650</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A330" t="s">
+    <row r="330" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B330" t="s">
         <v>652</v>
       </c>
-      <c r="B330" t="s">
+      <c r="C330" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A331" t="s">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B331" t="s">
         <v>654</v>
       </c>
-      <c r="B331" t="s">
+      <c r="C331" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A332" t="s">
+    <row r="332" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B332" t="s">
         <v>656</v>
       </c>
-      <c r="B332" t="s">
+      <c r="C332" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A333" t="s">
+    <row r="333" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B333" t="s">
         <v>658</v>
       </c>
-      <c r="B333" t="s">
+      <c r="C333" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A334" t="s">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B334" t="s">
         <v>660</v>
       </c>
-      <c r="B334" t="s">
+      <c r="C334" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A335" t="s">
+    <row r="335" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B335" t="s">
         <v>662</v>
       </c>
-      <c r="B335" t="s">
+      <c r="C335" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A336" t="s">
+    <row r="336" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B336" t="s">
         <v>664</v>
       </c>
-      <c r="B336" t="s">
+      <c r="C336" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A337" t="s">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B337" t="s">
         <v>666</v>
       </c>
-      <c r="B337" t="s">
+      <c r="C337" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A338" t="s">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B338" t="s">
         <v>668</v>
       </c>
-      <c r="B338" t="s">
+      <c r="C338" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A339" t="s">
+    <row r="339" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B339" t="s">
         <v>670</v>
       </c>
-      <c r="B339" t="s">
+      <c r="C339" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A340" t="s">
+    <row r="340" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B340" t="s">
         <v>672</v>
       </c>
-      <c r="B340" t="s">
+      <c r="C340" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A341" t="s">
+    <row r="341" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B341" t="s">
         <v>674</v>
       </c>
-      <c r="B341" t="s">
+      <c r="C341" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A342" t="s">
+    <row r="342" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B342" t="s">
         <v>676</v>
       </c>
-      <c r="B342" t="s">
+      <c r="C342" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A343" t="s">
+    <row r="343" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B343" t="s">
         <v>678</v>
       </c>
-      <c r="B343" t="s">
+      <c r="C343" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A344" t="s">
+    <row r="344" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B344" t="s">
         <v>680</v>
       </c>
-      <c r="B344" t="s">
+      <c r="C344" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A345" t="s">
+    <row r="345" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B345" t="s">
         <v>682</v>
       </c>
-      <c r="B345" t="s">
+      <c r="C345" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A346" t="s">
+    <row r="346" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B346" t="s">
         <v>684</v>
       </c>
-      <c r="B346" t="s">
+      <c r="C346" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A347" t="s">
+    <row r="347" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B347" t="s">
         <v>686</v>
       </c>
-      <c r="B347" t="s">
+      <c r="C347" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A348" t="s">
+    <row r="348" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B348" t="s">
         <v>688</v>
       </c>
-      <c r="B348" t="s">
+      <c r="C348" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A349" t="s">
+    <row r="349" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B349" t="s">
         <v>690</v>
       </c>
-      <c r="B349" t="s">
+      <c r="C349" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A350" t="s">
+    <row r="350" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B350" t="s">
         <v>692</v>
       </c>
-      <c r="B350" t="s">
+      <c r="C350" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A351" t="s">
+    <row r="351" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B351" t="s">
         <v>694</v>
       </c>
-      <c r="B351" t="s">
+      <c r="C351" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A352" t="s">
+    <row r="352" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B352" t="s">
         <v>696</v>
       </c>
-      <c r="B352" t="s">
+      <c r="C352" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A353" t="s">
+    <row r="353" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B353" t="s">
         <v>698</v>
       </c>
-      <c r="B353" t="s">
+      <c r="C353" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A354" t="s">
+    <row r="354" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B354" t="s">
         <v>700</v>
       </c>
-      <c r="B354" t="s">
+      <c r="C354" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A355" t="s">
+    <row r="355" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B355" t="s">
         <v>702</v>
       </c>
-      <c r="B355" t="s">
+      <c r="C355" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A356" t="s">
+    <row r="356" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B356" t="s">
         <v>704</v>
       </c>
-      <c r="B356" t="s">
+      <c r="C356" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A357" t="s">
+    <row r="357" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B357" t="s">
         <v>706</v>
       </c>
-      <c r="B357" t="s">
+      <c r="C357" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A358" t="s">
+    <row r="358" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B358" t="s">
         <v>708</v>
       </c>
-      <c r="B358" t="s">
+      <c r="C358" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A359" t="s">
+    <row r="359" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B359" t="s">
         <v>710</v>
       </c>
-      <c r="B359" t="s">
+      <c r="C359" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A360" t="s">
+    <row r="360" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B360" t="s">
         <v>712</v>
       </c>
-      <c r="B360" t="s">
+      <c r="C360" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A361" t="s">
+    <row r="361" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B361" t="s">
         <v>714</v>
       </c>
-      <c r="B361" t="s">
+      <c r="C361" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A362" t="s">
+    <row r="362" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B362" t="s">
         <v>716</v>
       </c>
-      <c r="B362" t="s">
+      <c r="C362" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A363" t="s">
+    <row r="363" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B363" t="s">
         <v>718</v>
       </c>
-      <c r="B363" t="s">
+      <c r="C363" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A364" t="s">
+    <row r="364" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B364" t="s">
         <v>720</v>
       </c>
-      <c r="B364" t="s">
+      <c r="C364" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A365" t="s">
+    <row r="365" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B365" t="s">
         <v>722</v>
       </c>
-      <c r="B365" t="s">
+      <c r="C365" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A366" t="s">
+    <row r="366" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B366" t="s">
         <v>724</v>
       </c>
-      <c r="B366" t="s">
+      <c r="C366" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A367" t="s">
+    <row r="367" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B367" t="s">
         <v>726</v>
       </c>
-      <c r="B367" t="s">
+      <c r="C367" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A368" t="s">
+    <row r="368" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B368" t="s">
         <v>728</v>
       </c>
-      <c r="B368" t="s">
+      <c r="C368" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A369" t="s">
+    <row r="369" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B369" t="s">
         <v>730</v>
       </c>
-      <c r="B369" t="s">
+      <c r="C369" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A370" t="s">
+    <row r="370" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B370" t="s">
         <v>732</v>
       </c>
-      <c r="B370" t="s">
+      <c r="C370" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A371" t="s">
+    <row r="371" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B371" t="s">
         <v>734</v>
       </c>
-      <c r="B371" t="s">
+      <c r="C371" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A372" t="s">
+    <row r="372" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B372" t="s">
         <v>736</v>
       </c>
-      <c r="B372" t="s">
+      <c r="C372" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A373" t="s">
+    <row r="373" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B373" t="s">
         <v>738</v>
       </c>
-      <c r="B373" t="s">
+      <c r="C373" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A374" t="s">
+    <row r="374" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B374" t="s">
         <v>740</v>
       </c>
-      <c r="B374" t="s">
+      <c r="C374" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A375" t="s">
+    <row r="375" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B375" t="s">
         <v>742</v>
       </c>
-      <c r="B375" t="s">
+      <c r="C375" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A376" t="s">
+    <row r="376" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B376" t="s">
         <v>744</v>
       </c>
-      <c r="B376" t="s">
+      <c r="C376" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A377" t="s">
+    <row r="377" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B377" t="s">
         <v>746</v>
       </c>
-      <c r="B377" t="s">
+      <c r="C377" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A378" t="s">
+    <row r="378" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B378" t="s">
         <v>748</v>
       </c>
-      <c r="B378" t="s">
+      <c r="C378" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A379" t="s">
+    <row r="379" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B379" t="s">
         <v>750</v>
       </c>
-      <c r="B379" t="s">
+      <c r="C379" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A380" t="s">
+    <row r="380" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B380" t="s">
         <v>752</v>
       </c>
-      <c r="B380" t="s">
+      <c r="C380" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A381" t="s">
+    <row r="381" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B381" t="s">
         <v>754</v>
       </c>
-      <c r="B381" t="s">
+      <c r="C381" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A382" t="s">
+    <row r="382" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B382" t="s">
         <v>756</v>
       </c>
-      <c r="B382" t="s">
+      <c r="C382" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A383" t="s">
+    <row r="383" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B383" t="s">
         <v>758</v>
       </c>
-      <c r="B383" t="s">
+      <c r="C383" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A384" t="s">
+    <row r="384" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B384" t="s">
         <v>760</v>
       </c>
-      <c r="B384" t="s">
+      <c r="C384" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A385" t="s">
+    <row r="385" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B385" t="s">
         <v>762</v>
       </c>
-      <c r="B385" t="s">
+      <c r="C385" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A386" t="s">
+    <row r="386" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B386" t="s">
         <v>764</v>
       </c>
-      <c r="B386" t="s">
+      <c r="C386" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A387" t="s">
+    <row r="387" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B387" t="s">
         <v>766</v>
       </c>
-      <c r="B387" t="s">
+      <c r="C387" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A388" t="s">
+    <row r="388" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B388" t="s">
         <v>768</v>
       </c>
-      <c r="B388" t="s">
+      <c r="C388" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A389" t="s">
+    <row r="389" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B389" t="s">
         <v>770</v>
       </c>
-      <c r="B389" t="s">
+      <c r="C389" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A390" t="s">
+    <row r="390" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B390" t="s">
         <v>772</v>
       </c>
-      <c r="B390" t="s">
+      <c r="C390" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A391" t="s">
+    <row r="391" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B391" t="s">
         <v>774</v>
       </c>
-      <c r="B391" t="s">
+      <c r="C391" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A392" t="s">
+    <row r="392" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B392" t="s">
         <v>776</v>
       </c>
-      <c r="B392" t="s">
+      <c r="C392" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A393" t="s">
+    <row r="393" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B393" t="s">
         <v>778</v>
       </c>
-      <c r="B393" t="s">
+      <c r="C393" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A394" t="s">
+    <row r="394" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B394" t="s">
         <v>780</v>
       </c>
-      <c r="B394" t="s">
+      <c r="C394" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A395" t="s">
+    <row r="395" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B395" t="s">
         <v>782</v>
       </c>
-      <c r="B395" t="s">
+      <c r="C395" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A396" t="s">
+    <row r="396" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B396" t="s">
         <v>784</v>
       </c>
-      <c r="B396" t="s">
+      <c r="C396" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A397" t="s">
+    <row r="397" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B397" t="s">
         <v>786</v>
       </c>
-      <c r="B397" t="s">
+      <c r="C397" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A398" t="s">
+    <row r="398" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B398" t="s">
         <v>788</v>
       </c>
-      <c r="B398" t="s">
+      <c r="C398" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A399" t="s">
+    <row r="399" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B399" t="s">
         <v>790</v>
       </c>
-      <c r="B399" t="s">
+      <c r="C399" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A400" t="s">
+    <row r="400" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B400" t="s">
         <v>792</v>
       </c>
-      <c r="B400" t="s">
+      <c r="C400" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A401" t="s">
+    <row r="401" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B401" t="s">
         <v>794</v>
       </c>
-      <c r="B401" t="s">
+      <c r="C401" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A402" t="s">
+    <row r="402" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B402" t="s">
         <v>796</v>
       </c>
-      <c r="B402" t="s">
+      <c r="C402" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A403" t="s">
+    <row r="403" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B403" t="s">
         <v>798</v>
       </c>
-      <c r="B403" t="s">
+      <c r="C403" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A404" t="s">
+    <row r="404" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B404" t="s">
         <v>800</v>
       </c>
-      <c r="B404" t="s">
+      <c r="C404" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A405" t="s">
+    <row r="405" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B405" t="s">
         <v>802</v>
       </c>
-      <c r="B405" t="s">
+      <c r="C405" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A406" t="s">
+    <row r="406" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B406" t="s">
         <v>804</v>
       </c>
-      <c r="B406" t="s">
+      <c r="C406" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A407" t="s">
+    <row r="407" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B407" t="s">
         <v>806</v>
       </c>
-      <c r="B407" t="s">
+      <c r="C407" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A408" t="s">
+    <row r="408" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B408" t="s">
         <v>808</v>
       </c>
-      <c r="B408" t="s">
+      <c r="C408" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A409" t="s">
+    <row r="409" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B409" t="s">
         <v>810</v>
       </c>
-      <c r="B409" t="s">
+      <c r="C409" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A410" t="s">
+    <row r="410" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B410" t="s">
         <v>812</v>
       </c>
-      <c r="B410" t="s">
+      <c r="C410" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A411" t="s">
+    <row r="411" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B411" t="s">
         <v>814</v>
       </c>
-      <c r="B411" t="s">
+      <c r="C411" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A412" t="s">
+    <row r="412" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B412" t="s">
         <v>816</v>
       </c>
-      <c r="B412" t="s">
+      <c r="C412" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A413" t="s">
+    <row r="413" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B413" t="s">
         <v>818</v>
       </c>
-      <c r="B413" t="s">
+      <c r="C413" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A414" t="s">
+    <row r="414" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B414" t="s">
         <v>820</v>
       </c>
-      <c r="B414" t="s">
+      <c r="C414" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A415" t="s">
+    <row r="415" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B415" t="s">
         <v>822</v>
       </c>
-      <c r="B415" t="s">
+      <c r="C415" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A416" t="s">
+    <row r="416" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B416" t="s">
         <v>824</v>
       </c>
-      <c r="B416" t="s">
+      <c r="C416" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A417" t="s">
+    <row r="417" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B417" t="s">
         <v>826</v>
       </c>
-      <c r="B417" t="s">
+      <c r="C417" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A418" t="s">
+    <row r="418" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B418" t="s">
         <v>828</v>
       </c>
-      <c r="B418" t="s">
+      <c r="C418" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A419" t="s">
+    <row r="419" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B419" t="s">
         <v>830</v>
       </c>
-      <c r="B419" t="s">
+      <c r="C419" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A420" t="s">
+    <row r="420" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B420" t="s">
         <v>832</v>
       </c>
-      <c r="B420" t="s">
+      <c r="C420" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A421" t="s">
+    <row r="421" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B421" t="s">
         <v>834</v>
       </c>
-      <c r="B421" t="s">
+      <c r="C421" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A422" t="s">
+    <row r="422" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B422" t="s">
         <v>836</v>
       </c>
-      <c r="B422" t="s">
+      <c r="C422" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A423" t="s">
+    <row r="423" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B423" t="s">
         <v>838</v>
       </c>
-      <c r="B423" t="s">
+      <c r="C423" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A424" t="s">
+    <row r="424" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B424" t="s">
         <v>840</v>
       </c>
-      <c r="B424" t="s">
+      <c r="C424" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A425" t="s">
+    <row r="425" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B425" t="s">
         <v>842</v>
       </c>
-      <c r="B425" t="s">
+      <c r="C425" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A426" t="s">
+    <row r="426" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B426" t="s">
         <v>844</v>
       </c>
-      <c r="B426" t="s">
+      <c r="C426" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A427" t="s">
+    <row r="427" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B427" t="s">
         <v>846</v>
       </c>
-      <c r="B427" t="s">
+      <c r="C427" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A428" t="s">
+    <row r="428" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B428" t="s">
         <v>848</v>
       </c>
-      <c r="B428" t="s">
+      <c r="C428" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A429" t="s">
+    <row r="429" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B429" t="s">
         <v>850</v>
       </c>
-      <c r="B429" t="s">
+      <c r="C429" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A430" t="s">
+    <row r="430" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B430" t="s">
         <v>852</v>
       </c>
-      <c r="B430" t="s">
+      <c r="C430" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A431" t="s">
+    <row r="431" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B431" t="s">
         <v>854</v>
       </c>
-      <c r="B431" t="s">
+      <c r="C431" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A432" t="s">
+    <row r="432" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B432" t="s">
         <v>856</v>
       </c>
-      <c r="B432" t="s">
+      <c r="C432" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A433" t="s">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B433" t="s">
         <v>858</v>
       </c>
-      <c r="B433" t="s">
+      <c r="C433" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A434" t="s">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B434" t="s">
         <v>860</v>
       </c>
-      <c r="B434" t="s">
+      <c r="C434" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A435" t="s">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B435" t="s">
         <v>862</v>
       </c>
-      <c r="B435" t="s">
+      <c r="C435" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B436" t="s">
         <v>864</v>
       </c>
-      <c r="B436" t="s">
+      <c r="C436" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A437" t="s">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B437" t="s">
         <v>866</v>
       </c>
-      <c r="B437" t="s">
+      <c r="C437" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A438" t="s">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B438" t="s">
         <v>868</v>
       </c>
-      <c r="B438" t="s">
+      <c r="C438" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A439" t="s">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B439" t="s">
         <v>870</v>
       </c>
-      <c r="B439" t="s">
+      <c r="C439" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A440" t="s">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B440" t="s">
         <v>872</v>
       </c>
-      <c r="B440" t="s">
+      <c r="C440" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A441" t="s">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B441" t="s">
         <v>874</v>
       </c>
-      <c r="B441" t="s">
+      <c r="C441" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B442" t="s">
         <v>876</v>
       </c>
-      <c r="B442" t="s">
+      <c r="C442" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A443" t="s">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B443" t="s">
         <v>878</v>
       </c>
-      <c r="B443" t="s">
+      <c r="C443" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A444" t="s">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B444" t="s">
         <v>880</v>
       </c>
-      <c r="B444" t="s">
+      <c r="C444" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A445" t="s">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B445" t="s">
         <v>882</v>
       </c>
-      <c r="B445" t="s">
+      <c r="C445" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A446" t="s">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B446" t="s">
         <v>884</v>
       </c>
-      <c r="B446" t="s">
+      <c r="C446" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A447" t="s">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B447" t="s">
         <v>886</v>
       </c>
-      <c r="B447" t="s">
+      <c r="C447" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A448" t="s">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B448" t="s">
         <v>888</v>
       </c>
-      <c r="B448" t="s">
+      <c r="C448" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A449" t="s">
+    <row r="449" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B449" t="s">
         <v>890</v>
       </c>
-      <c r="B449" t="s">
+      <c r="C449" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A450" t="s">
+    <row r="450" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B450" t="s">
         <v>892</v>
       </c>
-      <c r="B450" t="s">
+      <c r="C450" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A451" t="s">
+    <row r="451" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B451" t="s">
         <v>894</v>
       </c>
-      <c r="B451" t="s">
+      <c r="C451" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A452" t="s">
+    <row r="452" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B452" t="s">
         <v>896</v>
       </c>
-      <c r="B452" t="s">
+      <c r="C452" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A453" t="s">
+    <row r="453" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B453" t="s">
         <v>898</v>
       </c>
-      <c r="B453" t="s">
+      <c r="C453" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A454" t="s">
+    <row r="454" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B454" t="s">
         <v>900</v>
       </c>
-      <c r="B454" t="s">
+      <c r="C454" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A455" t="s">
+    <row r="455" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B455" t="s">
         <v>902</v>
       </c>
-      <c r="B455" t="s">
+      <c r="C455" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A456" t="s">
+    <row r="456" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B456" t="s">
         <v>904</v>
       </c>
-      <c r="B456" t="s">
+      <c r="C456" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A457" t="s">
+    <row r="457" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B457" t="s">
         <v>906</v>
       </c>
-      <c r="B457" t="s">
+      <c r="C457" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A458" t="s">
+    <row r="458" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B458" t="s">
         <v>908</v>
       </c>
-      <c r="B458" t="s">
+      <c r="C458" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A459" t="s">
+    <row r="459" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B459" t="s">
         <v>910</v>
       </c>
-      <c r="B459" t="s">
+      <c r="C459" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A460" t="s">
+    <row r="460" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B460" t="s">
         <v>912</v>
       </c>
-      <c r="B460" t="s">
+      <c r="C460" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A461" t="s">
+    <row r="461" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B461" t="s">
         <v>914</v>
       </c>
-      <c r="B461" t="s">
+      <c r="C461" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A462" t="s">
+    <row r="462" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B462" t="s">
         <v>916</v>
       </c>
-      <c r="B462" t="s">
+      <c r="C462" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A463" t="s">
+    <row r="463" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B463" t="s">
         <v>918</v>
       </c>
-      <c r="B463" t="s">
+      <c r="C463" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A464" t="s">
+    <row r="464" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B464" t="s">
         <v>920</v>
       </c>
-      <c r="B464" t="s">
+      <c r="C464" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A465" t="s">
+    <row r="465" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B465" t="s">
         <v>922</v>
       </c>
-      <c r="B465" t="s">
+      <c r="C465" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A466" t="s">
+    <row r="466" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B466" t="s">
         <v>924</v>
       </c>
-      <c r="B466" t="s">
+      <c r="C466" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A467" t="s">
+    <row r="467" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B467" t="s">
         <v>926</v>
       </c>
-      <c r="B467" t="s">
+      <c r="C467" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A468" t="s">
+    <row r="468" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B468" t="s">
         <v>928</v>
       </c>
-      <c r="B468" t="s">
+      <c r="C468" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A469" t="s">
+    <row r="469" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B469" t="s">
         <v>930</v>
       </c>
-      <c r="B469" t="s">
+      <c r="C469" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A470" t="s">
+    <row r="470" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B470" t="s">
         <v>932</v>
       </c>
-      <c r="B470" t="s">
+      <c r="C470" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A471" t="s">
+    <row r="471" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B471" t="s">
         <v>934</v>
       </c>
-      <c r="B471" t="s">
+      <c r="C471" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A472" t="s">
+    <row r="472" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B472" t="s">
         <v>936</v>
       </c>
-      <c r="B472" t="s">
+      <c r="C472" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A473" t="s">
+    <row r="473" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B473" t="s">
         <v>938</v>
       </c>
-      <c r="B473" t="s">
+      <c r="C473" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A474" t="s">
+    <row r="474" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B474" t="s">
         <v>940</v>
       </c>
-      <c r="B474" t="s">
+      <c r="C474" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A475" t="s">
+    <row r="475" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B475" t="s">
         <v>942</v>
       </c>
-      <c r="B475" t="s">
+      <c r="C475" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A476" t="s">
+    <row r="476" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B476" t="s">
         <v>944</v>
       </c>
-      <c r="B476" t="s">
+      <c r="C476" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A477" t="s">
+    <row r="477" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B477" t="s">
         <v>946</v>
       </c>
-      <c r="B477" t="s">
+      <c r="C477" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A478" t="s">
+    <row r="478" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B478" t="s">
         <v>948</v>
       </c>
-      <c r="B478" t="s">
+      <c r="C478" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A479" t="s">
+    <row r="479" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B479" t="s">
         <v>950</v>
       </c>
-      <c r="B479" t="s">
+      <c r="C479" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A480" t="s">
+    <row r="480" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B480" t="s">
         <v>952</v>
       </c>
-      <c r="B480" t="s">
+      <c r="C480" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A481" t="s">
+    <row r="481" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B481" t="s">
         <v>954</v>
       </c>
-      <c r="B481" t="s">
+      <c r="C481" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A482" t="s">
+    <row r="482" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B482" t="s">
         <v>956</v>
       </c>
-      <c r="B482" t="s">
+      <c r="C482" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A483" t="s">
+    <row r="483" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B483" t="s">
         <v>958</v>
       </c>
-      <c r="B483" t="s">
+      <c r="C483" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A484" t="s">
+    <row r="484" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B484" t="s">
         <v>960</v>
       </c>
-      <c r="B484" t="s">
+      <c r="C484" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A485" t="s">
+    <row r="485" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B485" t="s">
         <v>962</v>
       </c>
-      <c r="B485" t="s">
+      <c r="C485" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A486" t="s">
+    <row r="486" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B486" t="s">
         <v>964</v>
       </c>
-      <c r="B486" t="s">
+      <c r="C486" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A487" t="s">
+    <row r="487" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B487" t="s">
         <v>966</v>
       </c>
-      <c r="B487" t="s">
+      <c r="C487" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A488" t="s">
+    <row r="488" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B488" t="s">
         <v>968</v>
       </c>
-      <c r="B488" t="s">
+      <c r="C488" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A489" t="s">
+    <row r="489" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B489" t="s">
         <v>970</v>
       </c>
-      <c r="B489" t="s">
+      <c r="C489" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A490" t="s">
+    <row r="490" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B490" t="s">
         <v>972</v>
       </c>
-      <c r="B490" t="s">
+      <c r="C490" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A491" t="s">
+    <row r="491" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B491" t="s">
         <v>974</v>
       </c>
-      <c r="B491" t="s">
+      <c r="C491" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A492" t="s">
+    <row r="492" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B492" t="s">
         <v>976</v>
       </c>
-      <c r="B492" t="s">
+      <c r="C492" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A493" t="s">
+    <row r="493" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B493" t="s">
         <v>978</v>
       </c>
-      <c r="B493" t="s">
+      <c r="C493" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A494" t="s">
+    <row r="494" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B494" t="s">
         <v>980</v>
       </c>
-      <c r="B494" t="s">
+      <c r="C494" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A495" t="s">
+    <row r="495" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B495" t="s">
         <v>982</v>
       </c>
-      <c r="B495" t="s">
+      <c r="C495" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A496" t="s">
+    <row r="496" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B496" t="s">
         <v>984</v>
       </c>
-      <c r="B496" t="s">
+      <c r="C496" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A497" t="s">
+    <row r="497" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B497" t="s">
         <v>986</v>
       </c>
-      <c r="B497" t="s">
+      <c r="C497" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A498" t="s">
+    <row r="498" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B498" t="s">
         <v>988</v>
       </c>
-      <c r="B498" t="s">
+      <c r="C498" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A499" t="s">
+    <row r="499" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B499" t="s">
         <v>990</v>
       </c>
-      <c r="B499" t="s">
+      <c r="C499" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A500" t="s">
+    <row r="500" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B500" t="s">
         <v>992</v>
       </c>
-      <c r="B500" t="s">
+      <c r="C500" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A501" t="s">
+    <row r="501" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B501" t="s">
         <v>994</v>
       </c>
-      <c r="B501" t="s">
+      <c r="C501" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A502" t="s">
+    <row r="502" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B502" t="s">
         <v>996</v>
       </c>
-      <c r="B502" t="s">
+      <c r="C502" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A503" t="s">
+    <row r="503" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B503" t="s">
         <v>998</v>
       </c>
-      <c r="B503" t="s">
+      <c r="C503" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A504" t="s">
+    <row r="504" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B504" t="s">
         <v>1000</v>
       </c>
-      <c r="B504" t="s">
+      <c r="C504" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A505" t="s">
+    <row r="505" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B505" t="s">
         <v>1002</v>
       </c>
-      <c r="B505" t="s">
+      <c r="C505" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A506" t="s">
+    <row r="506" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B506" t="s">
         <v>1004</v>
       </c>
-      <c r="B506" t="s">
+      <c r="C506" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A507" t="s">
+    <row r="507" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B507" t="s">
         <v>1006</v>
       </c>
-      <c r="B507" t="s">
+      <c r="C507" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A508" t="s">
+    <row r="508" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B508" t="s">
         <v>1008</v>
       </c>
-      <c r="B508" t="s">
+      <c r="C508" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A509" t="s">
+    <row r="509" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B509" t="s">
         <v>1010</v>
       </c>
-      <c r="B509" t="s">
+      <c r="C509" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A510" t="s">
+    <row r="510" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B510" t="s">
         <v>1012</v>
       </c>
-      <c r="B510" t="s">
+      <c r="C510" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A511" t="s">
+    <row r="511" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B511" t="s">
         <v>1014</v>
       </c>
-      <c r="B511" t="s">
+      <c r="C511" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A512" t="s">
+    <row r="512" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B512" t="s">
         <v>1016</v>
       </c>
-      <c r="B512" t="s">
+      <c r="C512" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A513" t="s">
+    <row r="513" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B513" t="s">
         <v>1018</v>
       </c>
-      <c r="B513" t="s">
+      <c r="C513" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A514" t="s">
+    <row r="514" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B514" t="s">
         <v>1020</v>
       </c>
-      <c r="B514" t="s">
+      <c r="C514" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A515" t="s">
+    <row r="515" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B515" t="s">
         <v>1022</v>
       </c>
-      <c r="B515" t="s">
+      <c r="C515" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A516" t="s">
+    <row r="516" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B516" t="s">
         <v>1024</v>
       </c>
-      <c r="B516" t="s">
+      <c r="C516" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A517" t="s">
+    <row r="517" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B517" t="s">
         <v>1026</v>
       </c>
-      <c r="B517" t="s">
+      <c r="C517" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A518" t="s">
+    <row r="518" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B518" t="s">
         <v>1028</v>
       </c>
-      <c r="B518" t="s">
+      <c r="C518" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A519" t="s">
+    <row r="519" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B519" t="s">
         <v>1029</v>
       </c>
-      <c r="B519" t="s">
+      <c r="C519" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A520" t="s">
+    <row r="520" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B520" t="s">
         <v>1031</v>
       </c>
-      <c r="B520" t="s">
+      <c r="C520" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A521" t="s">
+    <row r="521" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B521" t="s">
         <v>1032</v>
       </c>
-      <c r="B521" t="s">
+      <c r="C521" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A522" t="s">
+    <row r="522" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B522" t="s">
         <v>1034</v>
       </c>
-      <c r="B522" t="s">
+      <c r="C522" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A523" t="s">
+    <row r="523" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B523" t="s">
         <v>1035</v>
       </c>
-      <c r="B523" t="s">
+      <c r="C523" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A524" t="s">
+    <row r="524" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B524" t="s">
         <v>1037</v>
       </c>
-      <c r="B524" t="s">
+      <c r="C524" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A525" t="s">
+    <row r="525" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B525" t="s">
         <v>1038</v>
       </c>
-      <c r="B525" t="s">
+      <c r="C525" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A526" t="s">
+    <row r="526" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B526" t="s">
         <v>1040</v>
       </c>
-      <c r="B526" t="s">
+      <c r="C526" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A527" t="s">
+    <row r="527" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B527" t="s">
         <v>1041</v>
       </c>
-      <c r="B527" t="s">
+      <c r="C527" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A528" t="s">
+    <row r="528" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B528" t="s">
         <v>1043</v>
       </c>
-      <c r="B528" t="s">
+      <c r="C528" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A529" t="s">
+    <row r="529" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B529" t="s">
         <v>1044</v>
       </c>
-      <c r="B529" t="s">
+      <c r="C529" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A530" t="s">
+    <row r="530" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B530" t="s">
         <v>1046</v>
       </c>
-      <c r="B530" t="s">
+      <c r="C530" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A531" t="s">
+    <row r="531" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B531" t="s">
         <v>1047</v>
       </c>
-      <c r="B531" t="s">
+      <c r="C531" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A532" t="s">
+    <row r="532" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B532" t="s">
         <v>1049</v>
       </c>
-      <c r="B532" t="s">
+      <c r="C532" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A533" t="s">
+    <row r="533" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B533" t="s">
         <v>1050</v>
       </c>
-      <c r="B533" t="s">
+      <c r="C533" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A534" t="s">
+    <row r="534" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B534" t="s">
         <v>1052</v>
       </c>
-      <c r="B534" t="s">
+      <c r="C534" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A535" t="s">
+    <row r="535" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B535" t="s">
         <v>1054</v>
       </c>
-      <c r="B535" t="s">
+      <c r="C535" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A536" t="s">
+    <row r="536" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B536" t="s">
         <v>1056</v>
       </c>
-      <c r="B536" t="s">
+      <c r="C536" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A537" t="s">
+    <row r="537" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B537" t="s">
         <v>1058</v>
       </c>
-      <c r="B537" t="s">
+      <c r="C537" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A538" t="s">
+    <row r="538" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B538" t="s">
         <v>1059</v>
       </c>
-      <c r="B538" t="s">
+      <c r="C538" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A539" t="s">
+    <row r="539" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B539" t="s">
         <v>1060</v>
       </c>
-      <c r="B539" t="s">
+      <c r="C539" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A540" t="s">
+    <row r="540" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B540" t="s">
         <v>1061</v>
       </c>
-      <c r="B540" t="s">
+      <c r="C540" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A541" t="s">
+    <row r="541" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B541" t="s">
         <v>1063</v>
       </c>
-      <c r="B541" t="s">
+      <c r="C541" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A542" t="s">
+    <row r="542" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B542" t="s">
         <v>1064</v>
       </c>
-      <c r="B542" t="s">
+      <c r="C542" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A543" t="s">
+    <row r="543" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B543" t="s">
         <v>1066</v>
       </c>
-      <c r="B543" t="s">
+      <c r="C543" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A544" t="s">
+    <row r="544" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B544" t="s">
         <v>1067</v>
       </c>
-      <c r="B544" t="s">
+      <c r="C544" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A545" t="s">
+    <row r="545" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B545" t="s">
         <v>1069</v>
       </c>
-      <c r="B545" t="s">
+      <c r="C545" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A546" t="s">
+    <row r="546" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B546" t="s">
         <v>1070</v>
       </c>
-      <c r="B546" t="s">
+      <c r="C546" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A547" t="s">
+    <row r="547" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B547" t="s">
         <v>1072</v>
       </c>
-      <c r="B547" t="s">
+      <c r="C547" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A548" t="s">
+    <row r="548" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B548" t="s">
         <v>1073</v>
       </c>
-      <c r="B548" t="s">
+      <c r="C548" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A549" t="s">
+    <row r="549" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B549" t="s">
         <v>1075</v>
       </c>
-      <c r="B549" t="s">
+      <c r="C549" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A550" t="s">
+    <row r="550" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B550" t="s">
         <v>1076</v>
       </c>
-      <c r="B550" t="s">
+      <c r="C550" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A551" t="s">
+    <row r="551" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B551" t="s">
         <v>1078</v>
       </c>
-      <c r="B551" t="s">
+      <c r="C551" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A552" t="s">
+    <row r="552" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B552" t="s">
         <v>1080</v>
       </c>
-      <c r="B552" t="s">
+      <c r="C552" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A553" t="s">
+    <row r="553" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B553" t="s">
         <v>1082</v>
       </c>
-      <c r="B553" t="s">
+      <c r="C553" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A554" t="s">
+    <row r="554" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B554" t="s">
         <v>1084</v>
       </c>
-      <c r="B554" t="s">
+      <c r="C554" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A555" t="s">
+    <row r="555" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B555" t="s">
         <v>1086</v>
       </c>
-      <c r="B555" t="s">
+      <c r="C555" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A556" t="s">
+    <row r="556" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B556" t="s">
         <v>1088</v>
       </c>
-      <c r="B556" t="s">
+      <c r="C556" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A557" t="s">
+    <row r="557" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B557" t="s">
         <v>1090</v>
       </c>
-      <c r="B557" t="s">
+      <c r="C557" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A558" t="s">
+    <row r="558" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B558" t="s">
         <v>1092</v>
       </c>
-      <c r="B558" t="s">
+      <c r="C558" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A559" t="s">
+    <row r="559" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B559" t="s">
         <v>1094</v>
       </c>
-      <c r="B559" t="s">
+      <c r="C559" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A560" t="s">
+    <row r="560" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B560" t="s">
         <v>1096</v>
       </c>
-      <c r="B560" t="s">
+      <c r="C560" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A561" t="s">
+    <row r="561" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B561" t="s">
         <v>1098</v>
       </c>
-      <c r="B561" t="s">
+      <c r="C561" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A562" t="s">
+    <row r="562" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B562" t="s">
         <v>1100</v>
       </c>
-      <c r="B562" t="s">
+      <c r="C562" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A563" t="s">
+    <row r="563" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B563" t="s">
         <v>1102</v>
       </c>
-      <c r="B563" t="s">
+      <c r="C563" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A564" t="s">
+    <row r="564" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B564" t="s">
         <v>1104</v>
       </c>
-      <c r="B564" t="s">
+      <c r="C564" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A565" t="s">
+    <row r="565" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B565" t="s">
         <v>1106</v>
       </c>
-      <c r="B565" t="s">
+      <c r="C565" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A566" t="s">
+    <row r="566" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B566" t="s">
         <v>1108</v>
       </c>
-      <c r="B566" t="s">
+      <c r="C566" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A567" t="s">
+    <row r="567" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B567" t="s">
         <v>1110</v>
       </c>
-      <c r="B567" t="s">
+      <c r="C567" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A568" t="s">
+    <row r="568" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B568" t="s">
         <v>1112</v>
       </c>
-      <c r="B568" t="s">
+      <c r="C568" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A569" t="s">
+    <row r="569" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B569" t="s">
         <v>1114</v>
       </c>
-      <c r="B569" t="s">
+      <c r="C569" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A570" t="s">
+    <row r="570" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B570" t="s">
         <v>1116</v>
       </c>
-      <c r="B570" t="s">
+      <c r="C570" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A571" t="s">
+    <row r="571" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B571" t="s">
         <v>1118</v>
       </c>
-      <c r="B571" t="s">
+      <c r="C571" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A572" t="s">
+    <row r="572" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B572" t="s">
         <v>1120</v>
       </c>
-      <c r="B572" t="s">
+      <c r="C572" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A573" t="s">
+    <row r="573" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B573" t="s">
         <v>1122</v>
       </c>
-      <c r="B573" t="s">
+      <c r="C573" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A574" t="s">
+    <row r="574" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B574" t="s">
         <v>1124</v>
       </c>
-      <c r="B574" t="s">
+      <c r="C574" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A575" t="s">
+    <row r="575" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B575" t="s">
         <v>1126</v>
       </c>
-      <c r="B575" t="s">
+      <c r="C575" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A576" t="s">
+    <row r="576" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B576" t="s">
         <v>1128</v>
       </c>
-      <c r="B576" t="s">
+      <c r="C576" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A577" t="s">
+    <row r="577" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B577" t="s">
         <v>1130</v>
       </c>
-      <c r="B577" t="s">
+      <c r="C577" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A578" t="s">
+    <row r="578" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B578" t="s">
         <v>1132</v>
       </c>
-      <c r="B578" t="s">
+      <c r="C578" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A579" t="s">
+    <row r="579" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B579" t="s">
         <v>1134</v>
       </c>
-      <c r="B579" t="s">
+      <c r="C579" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A580" t="s">
+    <row r="580" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B580" t="s">
         <v>1136</v>
       </c>
-      <c r="B580" t="s">
+      <c r="C580" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A581" t="s">
+    <row r="581" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B581" t="s">
         <v>1138</v>
       </c>
-      <c r="B581" t="s">
+      <c r="C581" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A582" t="s">
+    <row r="582" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B582" t="s">
         <v>1140</v>
       </c>
-      <c r="B582" t="s">
+      <c r="C582" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A583" t="s">
+    <row r="583" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B583" t="s">
         <v>1142</v>
       </c>
-      <c r="B583" t="s">
+      <c r="C583" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A584" t="s">
+    <row r="584" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B584" t="s">
         <v>1144</v>
       </c>
-      <c r="B584" t="s">
+      <c r="C584" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A585" t="s">
+    <row r="585" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B585" t="s">
         <v>1146</v>
       </c>
-      <c r="B585" t="s">
+      <c r="C585" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A586" t="s">
+    <row r="586" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B586" t="s">
         <v>1148</v>
       </c>
-      <c r="B586" t="s">
+      <c r="C586" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A587" t="s">
+    <row r="587" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B587" t="s">
         <v>1150</v>
       </c>
-      <c r="B587" t="s">
+      <c r="C587" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A588" t="s">
+    <row r="588" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B588" t="s">
         <v>1152</v>
       </c>
-      <c r="B588" t="s">
+      <c r="C588" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A589" t="s">
+    <row r="589" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B589" t="s">
         <v>1154</v>
       </c>
-      <c r="B589" t="s">
+      <c r="C589" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A590" t="s">
+    <row r="590" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B590" t="s">
         <v>1156</v>
       </c>
-      <c r="B590" t="s">
+      <c r="C590" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A591" t="s">
+    <row r="591" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B591" t="s">
         <v>1158</v>
       </c>
-      <c r="B591" t="s">
+      <c r="C591" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A592" t="s">
+    <row r="592" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B592" t="s">
         <v>1160</v>
       </c>
-      <c r="B592" t="s">
+      <c r="C592" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A593" t="s">
+    <row r="593" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B593" t="s">
         <v>1162</v>
       </c>
-      <c r="B593" t="s">
+      <c r="C593" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A594" t="s">
+    <row r="594" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B594" t="s">
         <v>1164</v>
       </c>
-      <c r="B594" t="s">
+      <c r="C594" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A595" t="s">
+    <row r="595" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B595" t="s">
         <v>1166</v>
       </c>
-      <c r="B595" t="s">
+      <c r="C595" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A596" t="s">
+    <row r="596" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B596" t="s">
         <v>1168</v>
       </c>
-      <c r="B596" t="s">
+      <c r="C596" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A597" t="s">
+    <row r="597" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B597" t="s">
         <v>1170</v>
       </c>
-      <c r="B597" t="s">
+      <c r="C597" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A598" t="s">
+    <row r="598" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B598" t="s">
         <v>1172</v>
       </c>
-      <c r="B598" t="s">
+      <c r="C598" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A599" t="s">
+    <row r="599" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B599" t="s">
         <v>1174</v>
       </c>
-      <c r="B599" t="s">
+      <c r="C599" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A600" t="s">
+    <row r="600" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B600" t="s">
         <v>1176</v>
       </c>
-      <c r="B600" t="s">
+      <c r="C600" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A601" t="s">
+    <row r="601" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B601" t="s">
         <v>1178</v>
       </c>
-      <c r="B601" t="s">
+      <c r="C601" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A602" t="s">
+    <row r="602" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B602" t="s">
         <v>1180</v>
       </c>
-      <c r="B602" t="s">
+      <c r="C602" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A603" t="s">
+    <row r="603" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B603" t="s">
         <v>1182</v>
       </c>
-      <c r="B603" t="s">
+      <c r="C603" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A604" t="s">
+    <row r="604" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B604" t="s">
         <v>1184</v>
       </c>
-      <c r="B604" t="s">
+      <c r="C604" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A605" t="s">
+    <row r="605" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B605" t="s">
         <v>1186</v>
       </c>
-      <c r="B605" t="s">
+      <c r="C605" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A606" t="s">
+    <row r="606" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B606" t="s">
         <v>1188</v>
       </c>
-      <c r="B606" t="s">
+      <c r="C606" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A607" t="s">
+    <row r="607" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B607" t="s">
         <v>1190</v>
       </c>
-      <c r="B607" t="s">
+      <c r="C607" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A608" t="s">
+    <row r="608" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B608" t="s">
         <v>1192</v>
       </c>
-      <c r="B608" t="s">
+      <c r="C608" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A609" t="s">
+    <row r="609" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B609" t="s">
         <v>1194</v>
       </c>
-      <c r="B609" t="s">
+      <c r="C609" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A610" t="s">
+    <row r="610" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B610" t="s">
         <v>1196</v>
       </c>
-      <c r="B610" t="s">
+      <c r="C610" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A611" t="s">
+    <row r="611" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B611" t="s">
         <v>1198</v>
       </c>
-      <c r="B611" t="s">
+      <c r="C611" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A612" t="s">
+    <row r="612" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B612" t="s">
         <v>1200</v>
       </c>
-      <c r="B612" t="s">
+      <c r="C612" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A613" t="s">
+    <row r="613" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B613" t="s">
         <v>1202</v>
       </c>
-      <c r="B613" t="s">
+      <c r="C613" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A614" t="s">
+    <row r="614" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B614" t="s">
         <v>1204</v>
       </c>
-      <c r="B614" t="s">
+      <c r="C614" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A615" t="s">
+    <row r="615" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B615" t="s">
         <v>1206</v>
       </c>
-      <c r="B615" t="s">
+      <c r="C615" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A616" t="s">
+    <row r="616" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B616" t="s">
         <v>1208</v>
       </c>
-      <c r="B616" t="s">
+      <c r="C616" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A617" t="s">
+    <row r="617" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B617" t="s">
         <v>1210</v>
       </c>
-      <c r="B617" t="s">
+      <c r="C617" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A618" t="s">
+    <row r="618" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B618" t="s">
         <v>1212</v>
       </c>
-      <c r="B618" t="s">
+      <c r="C618" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A619" t="s">
+    <row r="619" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B619" t="s">
         <v>1214</v>
       </c>
-      <c r="B619" t="s">
+      <c r="C619" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A620" t="s">
+    <row r="620" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B620" t="s">
         <v>1216</v>
       </c>
-      <c r="B620" t="s">
+      <c r="C620" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A621" t="s">
+    <row r="621" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B621" t="s">
         <v>1218</v>
       </c>
-      <c r="B621" t="s">
+      <c r="C621" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A622" t="s">
+    <row r="622" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B622" t="s">
         <v>1220</v>
       </c>
-      <c r="B622" t="s">
+      <c r="C622" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A623" t="s">
+    <row r="623" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B623" t="s">
         <v>1222</v>
       </c>
-      <c r="B623" t="s">
+      <c r="C623" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A624" t="s">
+    <row r="624" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B624" t="s">
         <v>1224</v>
       </c>
-      <c r="B624" t="s">
+      <c r="C624" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A625" t="s">
+    <row r="625" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B625" t="s">
         <v>1226</v>
       </c>
-      <c r="B625" t="s">
+      <c r="C625" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A626" t="s">
+    <row r="626" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B626" t="s">
         <v>1228</v>
       </c>
-      <c r="B626" t="s">
+      <c r="C626" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A627" t="s">
+    <row r="627" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B627" t="s">
         <v>1230</v>
       </c>
-      <c r="B627" t="s">
+      <c r="C627" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A628" t="s">
+    <row r="628" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B628" t="s">
         <v>1232</v>
       </c>
-      <c r="B628" t="s">
+      <c r="C628" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A629" t="s">
+    <row r="629" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B629" t="s">
         <v>1234</v>
       </c>
-      <c r="B629" t="s">
+      <c r="C629" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A630" t="s">
+    <row r="630" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B630" t="s">
         <v>1236</v>
       </c>
-      <c r="B630" t="s">
+      <c r="C630" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A631" t="s">
+    <row r="631" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B631" t="s">
         <v>1238</v>
       </c>
-      <c r="B631" t="s">
+      <c r="C631" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A632" t="s">
+    <row r="632" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B632" t="s">
         <v>1240</v>
       </c>
-      <c r="B632" t="s">
+      <c r="C632" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A633" t="s">
+    <row r="633" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B633" t="s">
         <v>1242</v>
       </c>
-      <c r="B633" t="s">
+      <c r="C633" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A634" t="s">
+    <row r="634" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B634" t="s">
         <v>1244</v>
       </c>
-      <c r="B634" t="s">
+      <c r="C634" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A635" t="s">
+    <row r="635" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B635" t="s">
         <v>1246</v>
       </c>
-      <c r="B635" t="s">
+      <c r="C635" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A636" t="s">
+    <row r="636" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B636" t="s">
         <v>1248</v>
       </c>
-      <c r="B636" t="s">
+      <c r="C636" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A637" t="s">
+    <row r="637" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B637" t="s">
         <v>1250</v>
       </c>
-      <c r="B637" t="s">
+      <c r="C637" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A638" t="s">
+    <row r="638" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B638" t="s">
         <v>1252</v>
       </c>
-      <c r="B638" t="s">
+      <c r="C638" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A639" t="s">
+    <row r="639" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B639" t="s">
         <v>1254</v>
       </c>
-      <c r="B639" t="s">
+      <c r="C639" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A640" t="s">
+    <row r="640" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B640" t="s">
         <v>1256</v>
       </c>
-      <c r="B640" t="s">
+      <c r="C640" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A641" t="s">
+    <row r="641" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B641" t="s">
         <v>1258</v>
       </c>
-      <c r="B641" t="s">
+      <c r="C641" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A642" t="s">
+    <row r="642" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B642" t="s">
         <v>1260</v>
       </c>
-      <c r="B642" t="s">
+      <c r="C642" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A643" t="s">
+    <row r="643" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B643" t="s">
         <v>1262</v>
       </c>
-      <c r="B643" t="s">
+      <c r="C643" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A644" t="s">
+    <row r="644" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B644" t="s">
         <v>1264</v>
       </c>
-      <c r="B644" t="s">
+      <c r="C644" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A645" t="s">
+    <row r="645" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B645" t="s">
         <v>1266</v>
       </c>
-      <c r="B645" t="s">
+      <c r="C645" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A646" t="s">
+    <row r="646" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B646" t="s">
         <v>1268</v>
       </c>
-      <c r="B646" t="s">
+      <c r="C646" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A647" t="s">
+    <row r="647" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B647" t="s">
         <v>1270</v>
       </c>
-      <c r="B647" t="s">
+      <c r="C647" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A648" t="s">
+    <row r="648" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B648" t="s">
         <v>1272</v>
       </c>
-      <c r="B648" t="s">
+      <c r="C648" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A649" t="s">
+    <row r="649" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B649" t="s">
         <v>1274</v>
       </c>
-      <c r="B649" t="s">
+      <c r="C649" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A650" t="s">
+    <row r="650" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B650" t="s">
         <v>1276</v>
       </c>
-      <c r="B650" t="s">
+      <c r="C650" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A651" t="s">
+    <row r="651" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B651" t="s">
         <v>1278</v>
       </c>
-      <c r="B651" t="s">
+      <c r="C651" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A652" t="s">
+    <row r="652" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B652" t="s">
         <v>1280</v>
       </c>
-      <c r="B652" t="s">
+      <c r="C652" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A653" t="s">
+    <row r="653" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B653" t="s">
         <v>1282</v>
       </c>
-      <c r="B653" t="s">
+      <c r="C653" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A654" t="s">
+    <row r="654" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B654" t="s">
         <v>1284</v>
       </c>
-      <c r="B654" t="s">
+      <c r="C654" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A655" t="s">
+    <row r="655" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B655" t="s">
         <v>1286</v>
       </c>
-      <c r="B655" t="s">
+      <c r="C655" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A656" t="s">
+    <row r="656" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B656" t="s">
         <v>1288</v>
       </c>
-      <c r="B656" t="s">
+      <c r="C656" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A657" t="s">
+    <row r="657" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B657" t="s">
         <v>1290</v>
       </c>
-      <c r="B657" t="s">
+      <c r="C657" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A658" t="s">
+    <row r="658" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B658" t="s">
         <v>1292</v>
       </c>
-      <c r="B658" t="s">
+      <c r="C658" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A659" t="s">
+    <row r="659" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B659" t="s">
         <v>1294</v>
       </c>
-      <c r="B659" t="s">
+      <c r="C659" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A660" t="s">
+    <row r="660" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B660" t="s">
         <v>1296</v>
       </c>
-      <c r="B660" t="s">
+      <c r="C660" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A661" t="s">
+    <row r="661" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B661" t="s">
         <v>1298</v>
       </c>
-      <c r="B661" t="s">
+      <c r="C661" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A662" t="s">
+    <row r="662" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B662" t="s">
         <v>1300</v>
       </c>
-      <c r="B662" t="s">
+      <c r="C662" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A663" t="s">
+    <row r="663" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B663" t="s">
         <v>1302</v>
       </c>
-      <c r="B663" t="s">
+      <c r="C663" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A664" t="s">
+    <row r="664" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B664" t="s">
         <v>1304</v>
       </c>
-      <c r="B664" t="s">
+      <c r="C664" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A665" t="s">
+    <row r="665" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B665" t="s">
         <v>1306</v>
       </c>
-      <c r="B665" t="s">
+      <c r="C665" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A666" t="s">
+    <row r="666" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B666" t="s">
         <v>1308</v>
       </c>
-      <c r="B666" t="s">
+      <c r="C666" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A667" t="s">
+    <row r="667" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B667" t="s">
         <v>1310</v>
       </c>
-      <c r="B667" t="s">
+      <c r="C667" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A668" t="s">
+    <row r="668" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B668" t="s">
         <v>1312</v>
       </c>
-      <c r="B668" t="s">
+      <c r="C668" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A669" t="s">
+    <row r="669" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B669" t="s">
         <v>1314</v>
       </c>
-      <c r="B669" t="s">
+      <c r="C669" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A670" t="s">
+    <row r="670" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B670" t="s">
         <v>1316</v>
       </c>
-      <c r="B670" t="s">
+      <c r="C670" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A671" t="s">
+    <row r="671" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B671" t="s">
         <v>1318</v>
       </c>
-      <c r="B671" t="s">
+      <c r="C671" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A672" t="s">
+    <row r="672" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B672" t="s">
         <v>1320</v>
       </c>
-      <c r="B672" t="s">
+      <c r="C672" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A673" t="s">
+    <row r="673" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B673" t="s">
         <v>1321</v>
       </c>
-      <c r="B673" t="s">
+      <c r="C673" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A674" t="s">
+    <row r="674" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B674" t="s">
         <v>1323</v>
       </c>
-      <c r="B674" t="s">
+      <c r="C674" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A675" t="s">
+    <row r="675" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B675" t="s">
         <v>1325</v>
       </c>
-      <c r="B675" t="s">
+      <c r="C675" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A676" t="s">
+    <row r="676" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B676" t="s">
         <v>1327</v>
       </c>
-      <c r="B676" t="s">
+      <c r="C676" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A677" t="s">
+    <row r="677" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B677" t="s">
         <v>1328</v>
       </c>
-      <c r="B677" t="s">
+      <c r="C677" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A678" t="s">
+    <row r="678" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B678" t="s">
         <v>1329</v>
       </c>
-      <c r="B678" t="s">
+      <c r="C678" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A679" t="s">
+    <row r="679" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B679" t="s">
         <v>1330</v>
       </c>
-      <c r="B679" t="s">
+      <c r="C679" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A680" t="s">
+    <row r="680" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B680" t="s">
         <v>1331</v>
       </c>
-      <c r="B680" t="s">
+      <c r="C680" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A681" t="s">
+    <row r="681" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B681" t="s">
         <v>1332</v>
       </c>
-      <c r="B681" t="s">
+      <c r="C681" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A682" t="s">
+    <row r="682" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B682" t="s">
         <v>1333</v>
       </c>
-      <c r="B682" t="s">
+      <c r="C682" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A683" t="s">
+    <row r="683" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B683" t="s">
         <v>1334</v>
       </c>
-      <c r="B683" t="s">
+      <c r="C683" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A684" t="s">
+    <row r="684" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B684" t="s">
         <v>1335</v>
       </c>
-      <c r="B684" t="s">
+      <c r="C684" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A685" t="s">
+    <row r="685" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B685" t="s">
         <v>1336</v>
       </c>
-      <c r="B685" t="s">
+      <c r="C685" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A686" t="s">
+    <row r="686" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B686" t="s">
         <v>1337</v>
       </c>
-      <c r="B686" t="s">
+      <c r="C686" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A687" t="s">
+    <row r="687" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B687" t="s">
         <v>1338</v>
       </c>
-      <c r="B687" t="s">
+      <c r="C687" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A688" t="s">
+    <row r="688" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B688" t="s">
         <v>1339</v>
       </c>
-      <c r="B688" t="s">
+      <c r="C688" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A689" t="s">
+    <row r="689" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B689" t="s">
         <v>1340</v>
       </c>
-      <c r="B689" t="s">
+      <c r="C689" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A690" t="s">
+    <row r="690" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B690" t="s">
         <v>1341</v>
       </c>
-      <c r="B690" t="s">
+      <c r="C690" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A691" t="s">
+    <row r="691" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B691" t="s">
         <v>1342</v>
       </c>
-      <c r="B691" t="s">
+      <c r="C691" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A692" t="s">
+    <row r="692" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B692" t="s">
         <v>1343</v>
       </c>
-      <c r="B692" t="s">
+      <c r="C692" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A693" t="s">
+    <row r="693" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B693" t="s">
         <v>1344</v>
       </c>
-      <c r="B693" t="s">
+      <c r="C693" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A694" t="s">
+    <row r="694" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B694" t="s">
         <v>1345</v>
       </c>
-      <c r="B694" t="s">
+      <c r="C694" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A695" t="s">
+    <row r="695" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B695" t="s">
         <v>1346</v>
       </c>
-      <c r="B695" t="s">
+      <c r="C695" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A696" t="s">
+    <row r="696" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B696" t="s">
         <v>1347</v>
       </c>
-      <c r="B696" t="s">
+      <c r="C696" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A697" t="s">
+    <row r="697" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B697" t="s">
         <v>1348</v>
       </c>
-      <c r="B697" t="s">
+      <c r="C697" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A698" t="s">
+    <row r="698" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B698" t="s">
         <v>1349</v>
       </c>
-      <c r="B698" t="s">
+      <c r="C698" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A699" t="s">
+    <row r="699" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B699" t="s">
         <v>1350</v>
       </c>
-      <c r="B699" t="s">
+      <c r="C699" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A700" t="s">
+    <row r="700" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B700" t="s">
         <v>1351</v>
       </c>
-      <c r="B700" t="s">
+      <c r="C700" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A701" t="s">
+    <row r="701" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B701" t="s">
         <v>1352</v>
       </c>
-      <c r="B701" t="s">
+      <c r="C701" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A702" t="s">
+    <row r="702" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B702" t="s">
         <v>1353</v>
       </c>
-      <c r="B702" t="s">
+      <c r="C702" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A703" t="s">
+    <row r="703" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B703" t="s">
         <v>1354</v>
       </c>
-      <c r="B703" t="s">
+      <c r="C703" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A704" t="s">
+    <row r="704" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B704" t="s">
         <v>1355</v>
       </c>
-      <c r="B704" t="s">
+      <c r="C704" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A705" t="s">
+    <row r="705" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B705" t="s">
         <v>1356</v>
       </c>
-      <c r="B705" t="s">
+      <c r="C705" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A706" t="s">
+    <row r="706" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B706" t="s">
         <v>1357</v>
       </c>
-      <c r="B706" t="s">
+      <c r="C706" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A707" t="s">
+    <row r="707" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B707" t="s">
         <v>1358</v>
       </c>
-      <c r="B707" t="s">
+      <c r="C707" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A708" t="s">
+    <row r="708" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B708" t="s">
         <v>1359</v>
       </c>
-      <c r="B708" t="s">
+      <c r="C708" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A709" t="s">
+    <row r="709" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B709" t="s">
         <v>1360</v>
       </c>
-      <c r="B709" t="s">
+      <c r="C709" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A710" t="s">
+    <row r="710" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B710" t="s">
         <v>1361</v>
       </c>
-      <c r="B710" t="s">
+      <c r="C710" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A711" t="s">
+    <row r="711" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B711" t="s">
         <v>1362</v>
       </c>
-      <c r="B711" t="s">
+      <c r="C711" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A712" t="s">
+    <row r="712" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B712" t="s">
         <v>1363</v>
       </c>
-      <c r="B712" t="s">
+      <c r="C712" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A713" t="s">
+    <row r="713" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B713" t="s">
         <v>1364</v>
       </c>
-      <c r="B713" t="s">
+      <c r="C713" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A714" t="s">
+    <row r="714" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B714" t="s">
         <v>1365</v>
       </c>
-      <c r="B714" t="s">
+      <c r="C714" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A715" t="s">
+    <row r="715" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B715" t="s">
         <v>1366</v>
       </c>
-      <c r="B715" t="s">
+      <c r="C715" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A716" t="s">
+    <row r="716" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B716" t="s">
         <v>1367</v>
       </c>
-      <c r="B716" t="s">
+      <c r="C716" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A717" t="s">
+    <row r="717" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B717" t="s">
         <v>1368</v>
       </c>
-      <c r="B717" t="s">
+      <c r="C717" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A718" t="s">
+    <row r="718" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B718" t="s">
         <v>1369</v>
       </c>
-      <c r="B718" t="s">
+      <c r="C718" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A719" t="s">
+    <row r="719" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B719" t="s">
         <v>1370</v>
       </c>
-      <c r="B719" t="s">
+      <c r="C719" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A720" t="s">
+    <row r="720" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B720" t="s">
         <v>1371</v>
       </c>
-      <c r="B720" t="s">
+      <c r="C720" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A721" t="s">
+    <row r="721" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B721" t="s">
         <v>1372</v>
       </c>
-      <c r="B721" t="s">
+      <c r="C721" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A722" t="s">
+    <row r="722" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B722" t="s">
         <v>1373</v>
       </c>
-      <c r="B722" t="s">
+      <c r="C722" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A723" t="s">
+    <row r="723" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B723" t="s">
         <v>1374</v>
       </c>
-      <c r="B723" t="s">
+      <c r="C723" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A724" t="s">
+    <row r="724" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B724" t="s">
         <v>1375</v>
       </c>
-      <c r="B724" t="s">
+      <c r="C724" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A725" t="s">
+    <row r="725" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B725" t="s">
         <v>1376</v>
       </c>
-      <c r="B725" t="s">
+      <c r="C725" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A726" t="s">
+    <row r="726" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B726" t="s">
         <v>1377</v>
       </c>
-      <c r="B726" t="s">
+      <c r="C726" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A727" t="s">
+    <row r="727" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B727" t="s">
         <v>1378</v>
       </c>
-      <c r="B727" t="s">
+      <c r="C727" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A728" t="s">
+    <row r="728" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B728" t="s">
         <v>1379</v>
       </c>
-      <c r="B728" t="s">
+      <c r="C728" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A729" t="s">
+    <row r="729" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B729" t="s">
         <v>1380</v>
       </c>
-      <c r="B729" t="s">
+      <c r="C729" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A730" t="s">
+    <row r="730" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B730" t="s">
         <v>1381</v>
       </c>
-      <c r="B730" t="s">
+      <c r="C730" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A731" t="s">
+    <row r="731" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B731" t="s">
         <v>1382</v>
       </c>
-      <c r="B731" t="s">
+      <c r="C731" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A732" t="s">
+    <row r="732" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B732" t="s">
         <v>1383</v>
       </c>
-      <c r="B732" t="s">
+      <c r="C732" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A733" t="s">
+    <row r="733" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B733" t="s">
         <v>1384</v>
       </c>
-      <c r="B733" t="s">
+      <c r="C733" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A734" t="s">
+    <row r="734" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B734" t="s">
         <v>1385</v>
       </c>
-      <c r="B734" t="s">
+      <c r="C734" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A735" t="s">
+    <row r="735" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B735" t="s">
         <v>1386</v>
       </c>
-      <c r="B735" t="s">
+      <c r="C735" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A736" t="s">
+    <row r="736" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B736" t="s">
         <v>1387</v>
       </c>
-      <c r="B736" t="s">
+      <c r="C736" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A737" t="s">
+    <row r="737" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B737" t="s">
         <v>1388</v>
       </c>
-      <c r="B737" t="s">
+      <c r="C737" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A738" t="s">
+    <row r="738" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B738" t="s">
         <v>1389</v>
       </c>
-      <c r="B738" t="s">
+      <c r="C738" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A739" t="s">
+    <row r="739" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B739" t="s">
         <v>1390</v>
       </c>
-      <c r="B739" t="s">
+      <c r="C739" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A740" t="s">
+    <row r="740" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B740" t="s">
         <v>1391</v>
       </c>
-      <c r="B740" t="s">
+      <c r="C740" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A741" t="s">
+    <row r="741" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B741" t="s">
         <v>1392</v>
       </c>
-      <c r="B741" t="s">
+      <c r="C741" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A742" t="s">
+    <row r="742" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B742" t="s">
         <v>1393</v>
       </c>
-      <c r="B742" t="s">
+      <c r="C742" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A743" t="s">
+    <row r="743" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B743" t="s">
         <v>1394</v>
       </c>
-      <c r="B743" t="s">
+      <c r="C743" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A744" t="s">
+    <row r="744" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B744" t="s">
         <v>1395</v>
       </c>
-      <c r="B744" t="s">
+      <c r="C744" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A745" t="s">
+    <row r="745" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B745" t="s">
         <v>1396</v>
       </c>
-      <c r="B745" t="s">
+      <c r="C745" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A746" t="s">
+    <row r="746" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B746" t="s">
         <v>1397</v>
       </c>
-      <c r="B746" t="s">
+      <c r="C746" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A747" t="s">
+    <row r="747" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B747" t="s">
         <v>1398</v>
       </c>
-      <c r="B747" t="s">
+      <c r="C747" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A748" t="s">
+    <row r="748" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B748" t="s">
         <v>1399</v>
       </c>
-      <c r="B748" t="s">
+      <c r="C748" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A749" t="s">
+    <row r="749" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B749" t="s">
         <v>1400</v>
       </c>
-      <c r="B749" t="s">
+      <c r="C749" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A750" t="s">
+    <row r="750" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B750" t="s">
         <v>1401</v>
       </c>
-      <c r="B750" t="s">
+      <c r="C750" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A751" t="s">
+    <row r="751" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B751" t="s">
         <v>1402</v>
       </c>
-      <c r="B751" t="s">
+      <c r="C751" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A752" t="s">
+    <row r="752" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B752" t="s">
         <v>1403</v>
       </c>
-      <c r="B752" t="s">
+      <c r="C752" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A753" t="s">
+    <row r="753" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B753" t="s">
         <v>1404</v>
       </c>
-      <c r="B753" t="s">
+      <c r="C753" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A754" t="s">
+    <row r="754" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B754" t="s">
         <v>1405</v>
       </c>
-      <c r="B754" t="s">
+      <c r="C754" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A755" t="s">
+    <row r="755" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B755" t="s">
         <v>1406</v>
       </c>
-      <c r="B755" t="s">
+      <c r="C755" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A756" t="s">
+    <row r="756" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B756" t="s">
         <v>1407</v>
       </c>
-      <c r="B756" t="s">
+      <c r="C756" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A757" t="s">
+    <row r="757" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B757" t="s">
         <v>1408</v>
       </c>
-      <c r="B757" t="s">
+      <c r="C757" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A758" t="s">
+    <row r="758" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B758" t="s">
         <v>1409</v>
       </c>
-      <c r="B758" t="s">
+      <c r="C758" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A759" t="s">
+    <row r="759" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B759" t="s">
         <v>1410</v>
       </c>
-      <c r="B759" t="s">
+      <c r="C759" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A760" t="s">
+    <row r="760" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B760" t="s">
         <v>1411</v>
       </c>
-      <c r="B760" t="s">
+      <c r="C760" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A761" t="s">
+    <row r="761" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B761" t="s">
         <v>1412</v>
       </c>
-      <c r="B761" t="s">
+      <c r="C761" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A762" t="s">
+    <row r="762" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B762" t="s">
         <v>1413</v>
       </c>
-      <c r="B762" t="s">
+      <c r="C762" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A763" t="s">
+    <row r="763" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B763" t="s">
         <v>1414</v>
       </c>
-      <c r="B763" t="s">
+      <c r="C763" t="s">
         <v>1507</v>
       </c>
     </row>
